--- a/Tool/columns.xlsx
+++ b/Tool/columns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\TY1PEPF0000CF0E\EXCELCNV\4929d8e7-223f-4c70-9524-36096bd2e2e2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d4a9fd65a6bad53/Seun/2. Career and business/3. IQVIA-Asiwaju-PC/Analysis/tHFA/Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{E1511F1F-D8A7-4D42-928E-E9E384E9A26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{157564CE-DA17-4DDC-B851-031F2A27DBE5}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{E1511F1F-D8A7-4D42-928E-E9E384E9A26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BB0B7C5-5E19-4AC3-83E7-C26838CEC97E}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{92F174B8-707D-4AB0-8456-4EDDF9CBD9F1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{92F174B8-707D-4AB0-8456-4EDDF9CBD9F1}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4097,7 +4096,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4576,9 +4575,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4936,16 +4933,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB82BDAF-638F-492F-AA5C-88C3F27D6AAA}">
   <dimension ref="A1:B963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A869" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I875" sqref="I875"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" customWidth="1"/>
+    <col min="2" max="2" width="8.90625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4953,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4961,7 +4959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4969,7 +4967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4977,7 +4975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4985,7 +4983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4993,7 +4991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5001,7 +4999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5009,7 +5007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5017,7 +5015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5025,7 +5023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5033,7 +5031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -5041,7 +5039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -5049,7 +5047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -5057,7 +5055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -5065,7 +5063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -5073,7 +5071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -5081,7 +5079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -5089,7 +5087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -5097,7 +5095,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -5105,7 +5103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -5113,7 +5111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -5121,7 +5119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -5129,7 +5127,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -5137,23 +5135,23 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -5161,7 +5159,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -5169,7 +5167,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -5177,7 +5175,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -5185,7 +5183,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -5193,7 +5191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -5201,7 +5199,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -5209,7 +5207,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -5217,7 +5215,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -5225,7 +5223,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -5233,7 +5231,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -5241,7 +5239,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -5249,7 +5247,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -5257,7 +5255,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -5265,7 +5263,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -5273,7 +5271,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -5281,15 +5279,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -5297,7 +5295,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -5305,7 +5303,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -5313,7 +5311,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -5321,7 +5319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -5329,7 +5327,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -5337,7 +5335,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -5345,7 +5343,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -5353,7 +5351,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -5361,7 +5359,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>90</v>
       </c>
@@ -5369,7 +5367,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>92</v>
       </c>
@@ -5377,7 +5375,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -5385,7 +5383,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -5393,7 +5391,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>98</v>
       </c>
@@ -5401,7 +5399,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>100</v>
       </c>
@@ -5409,7 +5407,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -5417,7 +5415,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>104</v>
       </c>
@@ -5425,7 +5423,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -5433,7 +5431,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -5441,7 +5439,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -5449,7 +5447,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -5457,7 +5455,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -5465,7 +5463,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -5473,7 +5471,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -5481,7 +5479,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -5489,7 +5487,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>122</v>
       </c>
@@ -5497,7 +5495,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>124</v>
       </c>
@@ -5505,7 +5503,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>126</v>
       </c>
@@ -5513,7 +5511,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>128</v>
       </c>
@@ -5521,7 +5519,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>130</v>
       </c>
@@ -5529,7 +5527,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>132</v>
       </c>
@@ -5537,7 +5535,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>134</v>
       </c>
@@ -5545,7 +5543,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -5553,7 +5551,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -5561,7 +5559,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>140</v>
       </c>
@@ -5569,15 +5567,15 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>142</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>144</v>
       </c>
@@ -5585,7 +5583,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>146</v>
       </c>
@@ -5593,7 +5591,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>148</v>
       </c>
@@ -5601,7 +5599,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>149</v>
       </c>
@@ -5609,7 +5607,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>151</v>
       </c>
@@ -5617,7 +5615,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>152</v>
       </c>
@@ -5625,7 +5623,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>154</v>
       </c>
@@ -5633,7 +5631,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -5641,7 +5639,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>157</v>
       </c>
@@ -5649,7 +5647,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>158</v>
       </c>
@@ -5657,7 +5655,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>160</v>
       </c>
@@ -5665,7 +5663,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>161</v>
       </c>
@@ -5673,7 +5671,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>163</v>
       </c>
@@ -5681,7 +5679,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>164</v>
       </c>
@@ -5689,7 +5687,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>166</v>
       </c>
@@ -5697,7 +5695,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>167</v>
       </c>
@@ -5705,7 +5703,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>169</v>
       </c>
@@ -5713,7 +5711,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>170</v>
       </c>
@@ -5721,7 +5719,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>172</v>
       </c>
@@ -5729,7 +5727,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>173</v>
       </c>
@@ -5737,7 +5735,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>175</v>
       </c>
@@ -5745,7 +5743,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>176</v>
       </c>
@@ -5753,7 +5751,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>178</v>
       </c>
@@ -5761,7 +5759,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>179</v>
       </c>
@@ -5769,7 +5767,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>181</v>
       </c>
@@ -5777,7 +5775,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>182</v>
       </c>
@@ -5785,7 +5783,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>184</v>
       </c>
@@ -5793,7 +5791,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>185</v>
       </c>
@@ -5801,7 +5799,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>187</v>
       </c>
@@ -5809,7 +5807,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>188</v>
       </c>
@@ -5817,7 +5815,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>190</v>
       </c>
@@ -5825,7 +5823,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>191</v>
       </c>
@@ -5833,7 +5831,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>193</v>
       </c>
@@ -5841,7 +5839,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>194</v>
       </c>
@@ -5849,7 +5847,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>196</v>
       </c>
@@ -5857,7 +5855,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>197</v>
       </c>
@@ -5865,7 +5863,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>199</v>
       </c>
@@ -5873,7 +5871,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>200</v>
       </c>
@@ -5881,7 +5879,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>202</v>
       </c>
@@ -5889,7 +5887,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>203</v>
       </c>
@@ -5897,7 +5895,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>205</v>
       </c>
@@ -5905,7 +5903,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>206</v>
       </c>
@@ -5913,7 +5911,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>208</v>
       </c>
@@ -5921,7 +5919,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>209</v>
       </c>
@@ -5929,7 +5927,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>211</v>
       </c>
@@ -5937,7 +5935,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>212</v>
       </c>
@@ -5945,7 +5943,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>214</v>
       </c>
@@ -5953,7 +5951,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>215</v>
       </c>
@@ -5961,7 +5959,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>217</v>
       </c>
@@ -5969,7 +5967,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>218</v>
       </c>
@@ -5977,7 +5975,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>220</v>
       </c>
@@ -5985,7 +5983,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>221</v>
       </c>
@@ -5993,7 +5991,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>223</v>
       </c>
@@ -6001,7 +5999,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>224</v>
       </c>
@@ -6009,7 +6007,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>226</v>
       </c>
@@ -6017,7 +6015,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>227</v>
       </c>
@@ -6025,7 +6023,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>229</v>
       </c>
@@ -6033,7 +6031,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>230</v>
       </c>
@@ -6041,7 +6039,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>232</v>
       </c>
@@ -6049,7 +6047,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>233</v>
       </c>
@@ -6057,7 +6055,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>235</v>
       </c>
@@ -6065,7 +6063,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>236</v>
       </c>
@@ -6073,7 +6071,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>238</v>
       </c>
@@ -6081,15 +6079,15 @@
         <v>239</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>240</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>242</v>
       </c>
@@ -6097,7 +6095,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>244</v>
       </c>
@@ -6105,7 +6103,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>246</v>
       </c>
@@ -6113,7 +6111,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>248</v>
       </c>
@@ -6121,7 +6119,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>250</v>
       </c>
@@ -6129,7 +6127,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>252</v>
       </c>
@@ -6137,7 +6135,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>254</v>
       </c>
@@ -6145,7 +6143,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>256</v>
       </c>
@@ -6153,7 +6151,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>258</v>
       </c>
@@ -6161,7 +6159,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>260</v>
       </c>
@@ -6169,7 +6167,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>262</v>
       </c>
@@ -6177,7 +6175,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>264</v>
       </c>
@@ -6185,7 +6183,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>266</v>
       </c>
@@ -6193,7 +6191,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>268</v>
       </c>
@@ -6201,7 +6199,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>270</v>
       </c>
@@ -6209,7 +6207,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>272</v>
       </c>
@@ -6217,7 +6215,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>274</v>
       </c>
@@ -6225,7 +6223,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>276</v>
       </c>
@@ -6233,7 +6231,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>278</v>
       </c>
@@ -6241,7 +6239,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>280</v>
       </c>
@@ -6249,15 +6247,15 @@
         <v>281</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>282</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>284</v>
       </c>
@@ -6265,7 +6263,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>286</v>
       </c>
@@ -6273,7 +6271,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>288</v>
       </c>
@@ -6281,7 +6279,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>290</v>
       </c>
@@ -6289,7 +6287,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>292</v>
       </c>
@@ -6297,7 +6295,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>294</v>
       </c>
@@ -6305,7 +6303,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>296</v>
       </c>
@@ -6313,7 +6311,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>298</v>
       </c>
@@ -6321,7 +6319,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>300</v>
       </c>
@@ -6329,7 +6327,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>302</v>
       </c>
@@ -6337,7 +6335,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>304</v>
       </c>
@@ -6345,7 +6343,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>306</v>
       </c>
@@ -6353,7 +6351,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>308</v>
       </c>
@@ -6361,7 +6359,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>310</v>
       </c>
@@ -6369,7 +6367,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>312</v>
       </c>
@@ -6377,7 +6375,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>314</v>
       </c>
@@ -6385,7 +6383,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>316</v>
       </c>
@@ -6393,7 +6391,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>318</v>
       </c>
@@ -6401,7 +6399,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>320</v>
       </c>
@@ -6409,7 +6407,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>322</v>
       </c>
@@ -6417,7 +6415,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>324</v>
       </c>
@@ -6425,7 +6423,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>326</v>
       </c>
@@ -6433,7 +6431,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>328</v>
       </c>
@@ -6441,7 +6439,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>330</v>
       </c>
@@ -6449,7 +6447,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>332</v>
       </c>
@@ -6457,7 +6455,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>334</v>
       </c>
@@ -6465,7 +6463,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>336</v>
       </c>
@@ -6473,7 +6471,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>338</v>
       </c>
@@ -6481,7 +6479,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>340</v>
       </c>
@@ -6489,7 +6487,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>342</v>
       </c>
@@ -6497,7 +6495,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>344</v>
       </c>
@@ -6505,7 +6503,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>346</v>
       </c>
@@ -6513,7 +6511,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>348</v>
       </c>
@@ -6521,7 +6519,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>350</v>
       </c>
@@ -6529,7 +6527,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>352</v>
       </c>
@@ -6537,7 +6535,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>354</v>
       </c>
@@ -6545,7 +6543,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>356</v>
       </c>
@@ -6553,7 +6551,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>358</v>
       </c>
@@ -6561,7 +6559,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>360</v>
       </c>
@@ -6569,7 +6567,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>362</v>
       </c>
@@ -6577,7 +6575,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>364</v>
       </c>
@@ -6585,7 +6583,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>366</v>
       </c>
@@ -6593,7 +6591,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>368</v>
       </c>
@@ -6601,7 +6599,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>370</v>
       </c>
@@ -6609,7 +6607,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>372</v>
       </c>
@@ -6617,7 +6615,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>374</v>
       </c>
@@ -6625,7 +6623,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>376</v>
       </c>
@@ -6633,7 +6631,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>378</v>
       </c>
@@ -6641,7 +6639,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>380</v>
       </c>
@@ -6649,7 +6647,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>382</v>
       </c>
@@ -6657,7 +6655,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>384</v>
       </c>
@@ -6665,7 +6663,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>386</v>
       </c>
@@ -6673,7 +6671,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>388</v>
       </c>
@@ -6681,7 +6679,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>390</v>
       </c>
@@ -6689,7 +6687,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>392</v>
       </c>
@@ -6697,7 +6695,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>394</v>
       </c>
@@ -6705,7 +6703,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>396</v>
       </c>
@@ -6713,7 +6711,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>398</v>
       </c>
@@ -6721,7 +6719,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>400</v>
       </c>
@@ -6729,7 +6727,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>402</v>
       </c>
@@ -6737,7 +6735,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>404</v>
       </c>
@@ -6745,7 +6743,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>406</v>
       </c>
@@ -6753,7 +6751,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>408</v>
       </c>
@@ -6761,7 +6759,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>410</v>
       </c>
@@ -6769,7 +6767,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>412</v>
       </c>
@@ -6777,7 +6775,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>414</v>
       </c>
@@ -6785,7 +6783,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>416</v>
       </c>
@@ -6793,7 +6791,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>418</v>
       </c>
@@ -6801,7 +6799,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>420</v>
       </c>
@@ -6809,7 +6807,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>422</v>
       </c>
@@ -6817,7 +6815,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>424</v>
       </c>
@@ -6825,7 +6823,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>426</v>
       </c>
@@ -6833,7 +6831,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>428</v>
       </c>
@@ -6841,7 +6839,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>430</v>
       </c>
@@ -6849,7 +6847,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>432</v>
       </c>
@@ -6857,7 +6855,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>434</v>
       </c>
@@ -6865,7 +6863,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>436</v>
       </c>
@@ -6873,7 +6871,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>438</v>
       </c>
@@ -6881,7 +6879,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>440</v>
       </c>
@@ -6889,7 +6887,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>442</v>
       </c>
@@ -6897,7 +6895,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>444</v>
       </c>
@@ -6905,7 +6903,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>446</v>
       </c>
@@ -6913,7 +6911,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>448</v>
       </c>
@@ -6921,7 +6919,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>450</v>
       </c>
@@ -6929,7 +6927,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>452</v>
       </c>
@@ -6937,7 +6935,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>454</v>
       </c>
@@ -6945,7 +6943,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>456</v>
       </c>
@@ -6953,7 +6951,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>458</v>
       </c>
@@ -6961,7 +6959,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>460</v>
       </c>
@@ -6969,7 +6967,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>462</v>
       </c>
@@ -6977,7 +6975,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>464</v>
       </c>
@@ -6985,7 +6983,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>466</v>
       </c>
@@ -6993,7 +6991,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>467</v>
       </c>
@@ -7001,7 +6999,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>469</v>
       </c>
@@ -7009,7 +7007,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>471</v>
       </c>
@@ -7017,7 +7015,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>473</v>
       </c>
@@ -7025,15 +7023,15 @@
         <v>474</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>475</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B261" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>477</v>
       </c>
@@ -7041,7 +7039,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>479</v>
       </c>
@@ -7049,7 +7047,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>481</v>
       </c>
@@ -7057,7 +7055,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>483</v>
       </c>
@@ -7065,7 +7063,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>485</v>
       </c>
@@ -7073,7 +7071,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>487</v>
       </c>
@@ -7081,7 +7079,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>489</v>
       </c>
@@ -7089,7 +7087,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>491</v>
       </c>
@@ -7097,7 +7095,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>493</v>
       </c>
@@ -7105,7 +7103,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>495</v>
       </c>
@@ -7113,7 +7111,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>497</v>
       </c>
@@ -7121,7 +7119,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>499</v>
       </c>
@@ -7129,7 +7127,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>501</v>
       </c>
@@ -7137,7 +7135,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>503</v>
       </c>
@@ -7145,7 +7143,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>505</v>
       </c>
@@ -7153,7 +7151,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>506</v>
       </c>
@@ -7161,7 +7159,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>507</v>
       </c>
@@ -7169,7 +7167,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>508</v>
       </c>
@@ -7177,7 +7175,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>509</v>
       </c>
@@ -7185,7 +7183,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>510</v>
       </c>
@@ -7193,7 +7191,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>511</v>
       </c>
@@ -7201,7 +7199,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>512</v>
       </c>
@@ -7209,7 +7207,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>513</v>
       </c>
@@ -7217,7 +7215,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>514</v>
       </c>
@@ -7225,7 +7223,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>515</v>
       </c>
@@ -7233,7 +7231,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>517</v>
       </c>
@@ -7241,7 +7239,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>518</v>
       </c>
@@ -7249,7 +7247,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>519</v>
       </c>
@@ -7257,7 +7255,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>520</v>
       </c>
@@ -7265,7 +7263,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>521</v>
       </c>
@@ -7273,15 +7271,15 @@
         <v>474</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>522</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="B292" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>523</v>
       </c>
@@ -7289,7 +7287,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>524</v>
       </c>
@@ -7297,7 +7295,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>525</v>
       </c>
@@ -7305,7 +7303,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>526</v>
       </c>
@@ -7313,7 +7311,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>527</v>
       </c>
@@ -7321,7 +7319,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>528</v>
       </c>
@@ -7329,7 +7327,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>529</v>
       </c>
@@ -7337,7 +7335,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>530</v>
       </c>
@@ -7345,7 +7343,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>531</v>
       </c>
@@ -7353,7 +7351,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>532</v>
       </c>
@@ -7361,7 +7359,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>533</v>
       </c>
@@ -7369,7 +7367,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>534</v>
       </c>
@@ -7377,7 +7375,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>535</v>
       </c>
@@ -7385,7 +7383,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>536</v>
       </c>
@@ -7393,7 +7391,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>537</v>
       </c>
@@ -7401,7 +7399,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>538</v>
       </c>
@@ -7409,7 +7407,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>539</v>
       </c>
@@ -7417,7 +7415,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>540</v>
       </c>
@@ -7425,7 +7423,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>541</v>
       </c>
@@ -7433,7 +7431,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>542</v>
       </c>
@@ -7441,7 +7439,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>543</v>
       </c>
@@ -7449,7 +7447,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>544</v>
       </c>
@@ -7457,7 +7455,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>545</v>
       </c>
@@ -7465,7 +7463,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>546</v>
       </c>
@@ -7473,7 +7471,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>547</v>
       </c>
@@ -7481,7 +7479,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>548</v>
       </c>
@@ -7489,7 +7487,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>549</v>
       </c>
@@ -7497,7 +7495,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>550</v>
       </c>
@@ -7505,7 +7503,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>551</v>
       </c>
@@ -7513,7 +7511,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>552</v>
       </c>
@@ -7521,15 +7519,15 @@
         <v>478</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>553</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="B323" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>554</v>
       </c>
@@ -7537,7 +7535,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>555</v>
       </c>
@@ -7545,7 +7543,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>556</v>
       </c>
@@ -7553,7 +7551,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>557</v>
       </c>
@@ -7561,7 +7559,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>558</v>
       </c>
@@ -7569,7 +7567,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>559</v>
       </c>
@@ -7577,7 +7575,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>560</v>
       </c>
@@ -7585,7 +7583,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>561</v>
       </c>
@@ -7593,7 +7591,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>562</v>
       </c>
@@ -7601,7 +7599,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>563</v>
       </c>
@@ -7609,7 +7607,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>564</v>
       </c>
@@ -7617,7 +7615,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>565</v>
       </c>
@@ -7625,7 +7623,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>566</v>
       </c>
@@ -7633,7 +7631,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>567</v>
       </c>
@@ -7641,7 +7639,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>568</v>
       </c>
@@ -7649,7 +7647,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>569</v>
       </c>
@@ -7657,7 +7655,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>570</v>
       </c>
@@ -7665,7 +7663,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>571</v>
       </c>
@@ -7673,7 +7671,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>572</v>
       </c>
@@ -7681,7 +7679,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>573</v>
       </c>
@@ -7689,7 +7687,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>574</v>
       </c>
@@ -7697,7 +7695,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>575</v>
       </c>
@@ -7705,7 +7703,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>576</v>
       </c>
@@ -7713,7 +7711,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>577</v>
       </c>
@@ -7721,7 +7719,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>578</v>
       </c>
@@ -7729,7 +7727,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>579</v>
       </c>
@@ -7737,15 +7735,15 @@
         <v>472</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>580</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="B350" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>581</v>
       </c>
@@ -7753,7 +7751,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>582</v>
       </c>
@@ -7761,7 +7759,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>583</v>
       </c>
@@ -7769,7 +7767,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>584</v>
       </c>
@@ -7777,7 +7775,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>585</v>
       </c>
@@ -7785,7 +7783,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>586</v>
       </c>
@@ -7793,7 +7791,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>587</v>
       </c>
@@ -7801,7 +7799,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>588</v>
       </c>
@@ -7809,7 +7807,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>589</v>
       </c>
@@ -7817,7 +7815,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>590</v>
       </c>
@@ -7825,7 +7823,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>591</v>
       </c>
@@ -7833,7 +7831,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>592</v>
       </c>
@@ -7841,7 +7839,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>593</v>
       </c>
@@ -7849,7 +7847,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>594</v>
       </c>
@@ -7857,7 +7855,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>595</v>
       </c>
@@ -7865,7 +7863,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>596</v>
       </c>
@@ -7873,7 +7871,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>597</v>
       </c>
@@ -7881,7 +7879,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>598</v>
       </c>
@@ -7889,7 +7887,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>599</v>
       </c>
@@ -7897,7 +7895,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>600</v>
       </c>
@@ -7905,7 +7903,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>601</v>
       </c>
@@ -7913,7 +7911,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>602</v>
       </c>
@@ -7921,7 +7919,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>603</v>
       </c>
@@ -7929,7 +7927,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>604</v>
       </c>
@@ -7937,7 +7935,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>605</v>
       </c>
@@ -7945,7 +7943,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>606</v>
       </c>
@@ -7953,7 +7951,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>607</v>
       </c>
@@ -7961,7 +7959,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>608</v>
       </c>
@@ -7969,7 +7967,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>609</v>
       </c>
@@ -7977,15 +7975,15 @@
         <v>472</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>610</v>
       </c>
-      <c r="B380" s="1" t="s">
+      <c r="B380" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>611</v>
       </c>
@@ -7993,7 +7991,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>612</v>
       </c>
@@ -8001,7 +7999,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>613</v>
       </c>
@@ -8009,7 +8007,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>614</v>
       </c>
@@ -8017,7 +8015,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>615</v>
       </c>
@@ -8025,7 +8023,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>616</v>
       </c>
@@ -8033,7 +8031,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>617</v>
       </c>
@@ -8041,7 +8039,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>618</v>
       </c>
@@ -8049,7 +8047,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>619</v>
       </c>
@@ -8057,7 +8055,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>620</v>
       </c>
@@ -8065,7 +8063,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>621</v>
       </c>
@@ -8073,7 +8071,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>622</v>
       </c>
@@ -8081,7 +8079,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>623</v>
       </c>
@@ -8089,7 +8087,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>624</v>
       </c>
@@ -8097,7 +8095,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>625</v>
       </c>
@@ -8105,7 +8103,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>626</v>
       </c>
@@ -8113,7 +8111,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>627</v>
       </c>
@@ -8121,7 +8119,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>628</v>
       </c>
@@ -8129,7 +8127,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>629</v>
       </c>
@@ -8137,7 +8135,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>630</v>
       </c>
@@ -8145,7 +8143,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>631</v>
       </c>
@@ -8153,7 +8151,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>632</v>
       </c>
@@ -8161,7 +8159,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>633</v>
       </c>
@@ -8169,7 +8167,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="404" spans="1:2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>634</v>
       </c>
@@ -8177,7 +8175,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>635</v>
       </c>
@@ -8185,7 +8183,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>636</v>
       </c>
@@ -8193,7 +8191,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>637</v>
       </c>
@@ -8201,7 +8199,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>639</v>
       </c>
@@ -8209,7 +8207,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>641</v>
       </c>
@@ -8217,7 +8215,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>643</v>
       </c>
@@ -8225,7 +8223,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>644</v>
       </c>
@@ -8233,7 +8231,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>646</v>
       </c>
@@ -8241,7 +8239,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>648</v>
       </c>
@@ -8249,15 +8247,15 @@
         <v>649</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>650</v>
       </c>
-      <c r="B414" s="1" t="s">
+      <c r="B414" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>652</v>
       </c>
@@ -8265,7 +8263,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>654</v>
       </c>
@@ -8273,7 +8271,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>656</v>
       </c>
@@ -8281,7 +8279,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>658</v>
       </c>
@@ -8289,7 +8287,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>660</v>
       </c>
@@ -8297,7 +8295,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>662</v>
       </c>
@@ -8305,7 +8303,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>664</v>
       </c>
@@ -8313,7 +8311,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>666</v>
       </c>
@@ -8321,7 +8319,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>668</v>
       </c>
@@ -8329,7 +8327,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>670</v>
       </c>
@@ -8337,7 +8335,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="425" spans="1:2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>672</v>
       </c>
@@ -8345,7 +8343,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>674</v>
       </c>
@@ -8353,7 +8351,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>676</v>
       </c>
@@ -8361,7 +8359,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>678</v>
       </c>
@@ -8369,7 +8367,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>680</v>
       </c>
@@ -8377,7 +8375,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>682</v>
       </c>
@@ -8385,7 +8383,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>684</v>
       </c>
@@ -8393,7 +8391,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>686</v>
       </c>
@@ -8401,7 +8399,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>688</v>
       </c>
@@ -8409,7 +8407,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>690</v>
       </c>
@@ -8417,7 +8415,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>692</v>
       </c>
@@ -8425,7 +8423,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>694</v>
       </c>
@@ -8433,7 +8431,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>696</v>
       </c>
@@ -8441,7 +8439,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>698</v>
       </c>
@@ -8449,7 +8447,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>700</v>
       </c>
@@ -8457,7 +8455,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="440" spans="1:2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>702</v>
       </c>
@@ -8465,7 +8463,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>704</v>
       </c>
@@ -8473,7 +8471,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>706</v>
       </c>
@@ -8481,7 +8479,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="443" spans="1:2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>708</v>
       </c>
@@ -8489,7 +8487,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>710</v>
       </c>
@@ -8497,7 +8495,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="445" spans="1:2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>712</v>
       </c>
@@ -8505,7 +8503,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>714</v>
       </c>
@@ -8513,7 +8511,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="447" spans="1:2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>716</v>
       </c>
@@ -8521,7 +8519,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="448" spans="1:2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>718</v>
       </c>
@@ -8529,7 +8527,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>720</v>
       </c>
@@ -8537,7 +8535,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="450" spans="1:2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>722</v>
       </c>
@@ -8545,7 +8543,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>724</v>
       </c>
@@ -8553,7 +8551,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>726</v>
       </c>
@@ -8561,7 +8559,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="453" spans="1:2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>728</v>
       </c>
@@ -8569,7 +8567,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>730</v>
       </c>
@@ -8577,7 +8575,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="455" spans="1:2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>732</v>
       </c>
@@ -8585,7 +8583,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>734</v>
       </c>
@@ -8593,7 +8591,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="457" spans="1:2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>736</v>
       </c>
@@ -8601,7 +8599,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>738</v>
       </c>
@@ -8609,7 +8607,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="459" spans="1:2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>740</v>
       </c>
@@ -8617,7 +8615,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>742</v>
       </c>
@@ -8625,7 +8623,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="461" spans="1:2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>744</v>
       </c>
@@ -8633,7 +8631,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>746</v>
       </c>
@@ -8641,7 +8639,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="463" spans="1:2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>748</v>
       </c>
@@ -8649,7 +8647,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="464" spans="1:2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>750</v>
       </c>
@@ -8657,7 +8655,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>752</v>
       </c>
@@ -8665,7 +8663,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="466" spans="1:2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>754</v>
       </c>
@@ -8673,7 +8671,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>755</v>
       </c>
@@ -8681,7 +8679,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>756</v>
       </c>
@@ -8689,7 +8687,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="469" spans="1:2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>757</v>
       </c>
@@ -8697,15 +8695,15 @@
         <v>649</v>
       </c>
     </row>
-    <row r="470" spans="1:2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>758</v>
       </c>
-      <c r="B470" s="1" t="s">
+      <c r="B470" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="471" spans="1:2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>759</v>
       </c>
@@ -8713,7 +8711,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="472" spans="1:2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>760</v>
       </c>
@@ -8721,7 +8719,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="473" spans="1:2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>761</v>
       </c>
@@ -8729,7 +8727,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="474" spans="1:2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>762</v>
       </c>
@@ -8737,7 +8735,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="475" spans="1:2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>763</v>
       </c>
@@ -8745,7 +8743,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="476" spans="1:2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>764</v>
       </c>
@@ -8753,7 +8751,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="477" spans="1:2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>765</v>
       </c>
@@ -8761,7 +8759,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>766</v>
       </c>
@@ -8769,7 +8767,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="479" spans="1:2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>767</v>
       </c>
@@ -8777,7 +8775,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="480" spans="1:2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>768</v>
       </c>
@@ -8785,7 +8783,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="481" spans="1:2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>769</v>
       </c>
@@ -8793,7 +8791,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="482" spans="1:2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>770</v>
       </c>
@@ -8801,7 +8799,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>771</v>
       </c>
@@ -8809,7 +8807,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="484" spans="1:2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>772</v>
       </c>
@@ -8817,7 +8815,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="485" spans="1:2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>773</v>
       </c>
@@ -8825,7 +8823,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="486" spans="1:2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>774</v>
       </c>
@@ -8833,7 +8831,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="487" spans="1:2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>775</v>
       </c>
@@ -8841,7 +8839,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="488" spans="1:2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>776</v>
       </c>
@@ -8849,7 +8847,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="489" spans="1:2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>777</v>
       </c>
@@ -8857,7 +8855,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="490" spans="1:2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>778</v>
       </c>
@@ -8865,7 +8863,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="491" spans="1:2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>779</v>
       </c>
@@ -8873,7 +8871,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="492" spans="1:2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>780</v>
       </c>
@@ -8881,7 +8879,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>781</v>
       </c>
@@ -8889,7 +8887,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>782</v>
       </c>
@@ -8897,7 +8895,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="495" spans="1:2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>783</v>
       </c>
@@ -8905,7 +8903,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="496" spans="1:2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>784</v>
       </c>
@@ -8913,7 +8911,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="497" spans="1:2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>785</v>
       </c>
@@ -8921,7 +8919,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="498" spans="1:2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>786</v>
       </c>
@@ -8929,7 +8927,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>787</v>
       </c>
@@ -8937,7 +8935,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="500" spans="1:2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>788</v>
       </c>
@@ -8945,7 +8943,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="501" spans="1:2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>789</v>
       </c>
@@ -8953,7 +8951,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="502" spans="1:2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>790</v>
       </c>
@@ -8961,7 +8959,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="503" spans="1:2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>791</v>
       </c>
@@ -8969,7 +8967,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="504" spans="1:2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>792</v>
       </c>
@@ -8977,7 +8975,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="505" spans="1:2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>793</v>
       </c>
@@ -8985,7 +8983,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="506" spans="1:2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>794</v>
       </c>
@@ -8993,7 +8991,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="507" spans="1:2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>795</v>
       </c>
@@ -9001,7 +8999,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="508" spans="1:2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>796</v>
       </c>
@@ -9009,7 +9007,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="509" spans="1:2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>797</v>
       </c>
@@ -9017,7 +9015,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="510" spans="1:2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>798</v>
       </c>
@@ -9025,7 +9023,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="511" spans="1:2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>799</v>
       </c>
@@ -9033,7 +9031,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="512" spans="1:2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>800</v>
       </c>
@@ -9041,7 +9039,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="513" spans="1:2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>801</v>
       </c>
@@ -9049,7 +9047,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="514" spans="1:2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>802</v>
       </c>
@@ -9057,7 +9055,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="515" spans="1:2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>803</v>
       </c>
@@ -9065,7 +9063,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="516" spans="1:2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>804</v>
       </c>
@@ -9073,7 +9071,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="517" spans="1:2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>805</v>
       </c>
@@ -9081,7 +9079,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="518" spans="1:2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>806</v>
       </c>
@@ -9089,7 +9087,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="519" spans="1:2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>807</v>
       </c>
@@ -9097,7 +9095,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="520" spans="1:2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>808</v>
       </c>
@@ -9105,7 +9103,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="521" spans="1:2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>809</v>
       </c>
@@ -9113,7 +9111,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="522" spans="1:2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>810</v>
       </c>
@@ -9121,15 +9119,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="523" spans="1:2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>811</v>
       </c>
-      <c r="B523" s="1" t="s">
+      <c r="B523" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="524" spans="1:2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>812</v>
       </c>
@@ -9137,7 +9135,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="525" spans="1:2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>813</v>
       </c>
@@ -9145,7 +9143,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="526" spans="1:2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>814</v>
       </c>
@@ -9153,7 +9151,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="527" spans="1:2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>815</v>
       </c>
@@ -9161,7 +9159,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="528" spans="1:2">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>816</v>
       </c>
@@ -9169,7 +9167,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="529" spans="1:2">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>817</v>
       </c>
@@ -9177,7 +9175,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="530" spans="1:2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>818</v>
       </c>
@@ -9185,7 +9183,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="531" spans="1:2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>819</v>
       </c>
@@ -9193,7 +9191,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="532" spans="1:2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>820</v>
       </c>
@@ -9201,7 +9199,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="533" spans="1:2">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>821</v>
       </c>
@@ -9209,7 +9207,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="534" spans="1:2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>822</v>
       </c>
@@ -9217,7 +9215,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="535" spans="1:2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>823</v>
       </c>
@@ -9225,7 +9223,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="536" spans="1:2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>824</v>
       </c>
@@ -9233,7 +9231,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="537" spans="1:2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>825</v>
       </c>
@@ -9241,7 +9239,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="538" spans="1:2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>826</v>
       </c>
@@ -9249,7 +9247,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="539" spans="1:2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>827</v>
       </c>
@@ -9257,7 +9255,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="540" spans="1:2">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>828</v>
       </c>
@@ -9265,7 +9263,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="541" spans="1:2">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>829</v>
       </c>
@@ -9273,7 +9271,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="542" spans="1:2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>830</v>
       </c>
@@ -9281,7 +9279,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="543" spans="1:2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>831</v>
       </c>
@@ -9289,7 +9287,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="544" spans="1:2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>832</v>
       </c>
@@ -9297,7 +9295,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="545" spans="1:2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>833</v>
       </c>
@@ -9305,7 +9303,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="546" spans="1:2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>834</v>
       </c>
@@ -9313,7 +9311,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="547" spans="1:2">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>835</v>
       </c>
@@ -9321,7 +9319,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="548" spans="1:2">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>836</v>
       </c>
@@ -9329,7 +9327,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="549" spans="1:2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>837</v>
       </c>
@@ -9337,7 +9335,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="550" spans="1:2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>838</v>
       </c>
@@ -9345,7 +9343,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="551" spans="1:2">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>839</v>
       </c>
@@ -9353,7 +9351,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="552" spans="1:2">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>840</v>
       </c>
@@ -9361,7 +9359,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="553" spans="1:2">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>841</v>
       </c>
@@ -9369,7 +9367,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="554" spans="1:2">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>842</v>
       </c>
@@ -9377,7 +9375,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="555" spans="1:2">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>843</v>
       </c>
@@ -9385,7 +9383,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="556" spans="1:2">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>844</v>
       </c>
@@ -9393,7 +9391,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="557" spans="1:2">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>845</v>
       </c>
@@ -9401,7 +9399,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="558" spans="1:2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>846</v>
       </c>
@@ -9409,7 +9407,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="559" spans="1:2">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>847</v>
       </c>
@@ -9417,7 +9415,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="560" spans="1:2">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>848</v>
       </c>
@@ -9425,7 +9423,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="561" spans="1:2">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>849</v>
       </c>
@@ -9433,7 +9431,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="562" spans="1:2">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>850</v>
       </c>
@@ -9441,7 +9439,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="563" spans="1:2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>851</v>
       </c>
@@ -9449,7 +9447,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="564" spans="1:2">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>852</v>
       </c>
@@ -9457,7 +9455,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="565" spans="1:2">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>853</v>
       </c>
@@ -9465,7 +9463,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="566" spans="1:2">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>854</v>
       </c>
@@ -9473,7 +9471,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="567" spans="1:2">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>855</v>
       </c>
@@ -9481,7 +9479,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="568" spans="1:2">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>856</v>
       </c>
@@ -9489,7 +9487,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="569" spans="1:2">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>857</v>
       </c>
@@ -9497,7 +9495,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="570" spans="1:2">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>858</v>
       </c>
@@ -9505,7 +9503,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="571" spans="1:2">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>859</v>
       </c>
@@ -9513,7 +9511,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="572" spans="1:2">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>860</v>
       </c>
@@ -9521,7 +9519,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="573" spans="1:2">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>861</v>
       </c>
@@ -9529,7 +9527,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="574" spans="1:2">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>862</v>
       </c>
@@ -9537,7 +9535,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="575" spans="1:2">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>863</v>
       </c>
@@ -9545,7 +9543,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="576" spans="1:2">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>864</v>
       </c>
@@ -9553,7 +9551,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="577" spans="1:2">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>865</v>
       </c>
@@ -9561,15 +9559,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="578" spans="1:2">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>866</v>
       </c>
-      <c r="B578" s="1" t="s">
+      <c r="B578" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="579" spans="1:2">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>867</v>
       </c>
@@ -9577,7 +9575,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="580" spans="1:2">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>868</v>
       </c>
@@ -9585,7 +9583,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="581" spans="1:2">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>869</v>
       </c>
@@ -9593,7 +9591,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="582" spans="1:2">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>870</v>
       </c>
@@ -9601,7 +9599,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="583" spans="1:2">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>871</v>
       </c>
@@ -9609,7 +9607,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="584" spans="1:2">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>872</v>
       </c>
@@ -9617,7 +9615,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="585" spans="1:2">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>873</v>
       </c>
@@ -9625,7 +9623,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="586" spans="1:2">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>874</v>
       </c>
@@ -9633,7 +9631,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="587" spans="1:2">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>875</v>
       </c>
@@ -9641,7 +9639,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="588" spans="1:2">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>876</v>
       </c>
@@ -9649,7 +9647,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="589" spans="1:2">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>877</v>
       </c>
@@ -9657,7 +9655,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="590" spans="1:2">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>878</v>
       </c>
@@ -9665,7 +9663,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="591" spans="1:2">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>879</v>
       </c>
@@ -9673,7 +9671,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="592" spans="1:2">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>880</v>
       </c>
@@ -9681,7 +9679,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="593" spans="1:2">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>881</v>
       </c>
@@ -9689,7 +9687,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="594" spans="1:2">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>882</v>
       </c>
@@ -9697,7 +9695,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="595" spans="1:2">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>883</v>
       </c>
@@ -9705,7 +9703,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="596" spans="1:2">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>884</v>
       </c>
@@ -9713,7 +9711,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="597" spans="1:2">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>885</v>
       </c>
@@ -9721,7 +9719,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="598" spans="1:2">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>886</v>
       </c>
@@ -9729,7 +9727,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="599" spans="1:2">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>887</v>
       </c>
@@ -9737,7 +9735,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="600" spans="1:2">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>888</v>
       </c>
@@ -9745,7 +9743,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="601" spans="1:2">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>889</v>
       </c>
@@ -9753,7 +9751,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="602" spans="1:2">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>890</v>
       </c>
@@ -9761,7 +9759,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="603" spans="1:2">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>891</v>
       </c>
@@ -9769,7 +9767,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="604" spans="1:2">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>892</v>
       </c>
@@ -9777,7 +9775,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="605" spans="1:2">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>893</v>
       </c>
@@ -9785,7 +9783,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="606" spans="1:2">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>894</v>
       </c>
@@ -9793,7 +9791,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="607" spans="1:2">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>895</v>
       </c>
@@ -9801,7 +9799,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="608" spans="1:2">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>896</v>
       </c>
@@ -9809,7 +9807,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="609" spans="1:2">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>897</v>
       </c>
@@ -9817,7 +9815,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="610" spans="1:2">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>898</v>
       </c>
@@ -9825,7 +9823,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="611" spans="1:2">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>899</v>
       </c>
@@ -9833,7 +9831,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="612" spans="1:2">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>900</v>
       </c>
@@ -9841,7 +9839,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="613" spans="1:2">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>901</v>
       </c>
@@ -9849,7 +9847,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="614" spans="1:2">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>902</v>
       </c>
@@ -9857,7 +9855,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="615" spans="1:2">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>903</v>
       </c>
@@ -9865,7 +9863,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="616" spans="1:2">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>904</v>
       </c>
@@ -9873,7 +9871,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="617" spans="1:2">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>905</v>
       </c>
@@ -9881,7 +9879,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="618" spans="1:2">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>906</v>
       </c>
@@ -9889,7 +9887,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="619" spans="1:2">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>907</v>
       </c>
@@ -9897,7 +9895,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="620" spans="1:2">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>908</v>
       </c>
@@ -9905,7 +9903,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="621" spans="1:2">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>909</v>
       </c>
@@ -9913,7 +9911,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="622" spans="1:2">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>910</v>
       </c>
@@ -9921,7 +9919,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="623" spans="1:2">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>911</v>
       </c>
@@ -9929,7 +9927,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="624" spans="1:2">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>912</v>
       </c>
@@ -9937,7 +9935,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="625" spans="1:2">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>913</v>
       </c>
@@ -9945,7 +9943,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="626" spans="1:2">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>914</v>
       </c>
@@ -9953,7 +9951,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="627" spans="1:2">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>915</v>
       </c>
@@ -9961,7 +9959,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="628" spans="1:2">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>916</v>
       </c>
@@ -9969,7 +9967,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="629" spans="1:2">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>917</v>
       </c>
@@ -9977,7 +9975,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="630" spans="1:2">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>918</v>
       </c>
@@ -9985,7 +9983,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="631" spans="1:2">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>919</v>
       </c>
@@ -9993,7 +9991,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="632" spans="1:2">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>920</v>
       </c>
@@ -10001,15 +9999,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="633" spans="1:2">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>921</v>
       </c>
-      <c r="B633" s="1" t="s">
+      <c r="B633" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="634" spans="1:2">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>922</v>
       </c>
@@ -10017,7 +10015,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="635" spans="1:2">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>923</v>
       </c>
@@ -10025,7 +10023,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="636" spans="1:2">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>924</v>
       </c>
@@ -10033,7 +10031,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="637" spans="1:2">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>925</v>
       </c>
@@ -10041,7 +10039,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="638" spans="1:2">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>926</v>
       </c>
@@ -10049,7 +10047,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="639" spans="1:2">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>927</v>
       </c>
@@ -10057,7 +10055,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="640" spans="1:2">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>928</v>
       </c>
@@ -10065,7 +10063,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="641" spans="1:2">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>929</v>
       </c>
@@ -10073,7 +10071,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="642" spans="1:2">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>930</v>
       </c>
@@ -10081,7 +10079,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="643" spans="1:2">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>931</v>
       </c>
@@ -10089,7 +10087,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="644" spans="1:2">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>932</v>
       </c>
@@ -10097,7 +10095,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="645" spans="1:2">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>933</v>
       </c>
@@ -10105,7 +10103,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="646" spans="1:2">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>934</v>
       </c>
@@ -10113,7 +10111,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="647" spans="1:2">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>935</v>
       </c>
@@ -10121,7 +10119,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="648" spans="1:2">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>936</v>
       </c>
@@ -10129,7 +10127,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="649" spans="1:2">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>937</v>
       </c>
@@ -10137,7 +10135,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="650" spans="1:2">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>938</v>
       </c>
@@ -10145,7 +10143,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="651" spans="1:2">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>939</v>
       </c>
@@ -10153,7 +10151,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="652" spans="1:2">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>940</v>
       </c>
@@ -10161,7 +10159,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="653" spans="1:2">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>941</v>
       </c>
@@ -10169,7 +10167,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="654" spans="1:2">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>942</v>
       </c>
@@ -10177,7 +10175,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="655" spans="1:2">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>943</v>
       </c>
@@ -10185,7 +10183,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="656" spans="1:2">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>944</v>
       </c>
@@ -10193,7 +10191,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="657" spans="1:2">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>945</v>
       </c>
@@ -10201,7 +10199,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="658" spans="1:2">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>946</v>
       </c>
@@ -10209,7 +10207,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="659" spans="1:2">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>947</v>
       </c>
@@ -10217,7 +10215,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="660" spans="1:2">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>948</v>
       </c>
@@ -10225,7 +10223,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="661" spans="1:2">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>949</v>
       </c>
@@ -10233,7 +10231,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="662" spans="1:2">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>950</v>
       </c>
@@ -10241,7 +10239,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="663" spans="1:2">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>951</v>
       </c>
@@ -10249,7 +10247,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="664" spans="1:2">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>952</v>
       </c>
@@ -10257,7 +10255,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="665" spans="1:2">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>953</v>
       </c>
@@ -10265,7 +10263,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="666" spans="1:2">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>954</v>
       </c>
@@ -10273,7 +10271,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="667" spans="1:2">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>955</v>
       </c>
@@ -10281,7 +10279,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="668" spans="1:2">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>956</v>
       </c>
@@ -10289,7 +10287,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="669" spans="1:2">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>957</v>
       </c>
@@ -10297,7 +10295,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="670" spans="1:2">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>958</v>
       </c>
@@ -10305,7 +10303,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="671" spans="1:2">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>959</v>
       </c>
@@ -10313,7 +10311,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="672" spans="1:2">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>960</v>
       </c>
@@ -10321,7 +10319,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="673" spans="1:2">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>961</v>
       </c>
@@ -10329,7 +10327,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="674" spans="1:2">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>962</v>
       </c>
@@ -10337,7 +10335,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="675" spans="1:2">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>963</v>
       </c>
@@ -10345,7 +10343,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="676" spans="1:2">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>964</v>
       </c>
@@ -10353,7 +10351,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="677" spans="1:2">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>965</v>
       </c>
@@ -10361,7 +10359,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="678" spans="1:2">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>966</v>
       </c>
@@ -10369,7 +10367,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="679" spans="1:2">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>967</v>
       </c>
@@ -10377,7 +10375,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="680" spans="1:2">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>968</v>
       </c>
@@ -10385,7 +10383,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="681" spans="1:2">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>969</v>
       </c>
@@ -10393,7 +10391,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="682" spans="1:2">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>970</v>
       </c>
@@ -10401,7 +10399,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="683" spans="1:2">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>971</v>
       </c>
@@ -10409,7 +10407,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="684" spans="1:2">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>972</v>
       </c>
@@ -10417,7 +10415,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="685" spans="1:2">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>973</v>
       </c>
@@ -10425,7 +10423,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="686" spans="1:2">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>974</v>
       </c>
@@ -10433,7 +10431,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="687" spans="1:2">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>976</v>
       </c>
@@ -10441,7 +10439,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="688" spans="1:2">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>978</v>
       </c>
@@ -10449,7 +10447,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="689" spans="1:2">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>980</v>
       </c>
@@ -10457,7 +10455,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="690" spans="1:2">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>982</v>
       </c>
@@ -10465,7 +10463,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="691" spans="1:2">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>984</v>
       </c>
@@ -10473,7 +10471,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="692" spans="1:2">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>986</v>
       </c>
@@ -10481,7 +10479,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="693" spans="1:2">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>987</v>
       </c>
@@ -10489,7 +10487,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="694" spans="1:2">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>988</v>
       </c>
@@ -10497,7 +10495,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="695" spans="1:2">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>989</v>
       </c>
@@ -10505,7 +10503,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="696" spans="1:2">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>990</v>
       </c>
@@ -10513,7 +10511,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="697" spans="1:2">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>991</v>
       </c>
@@ -10521,7 +10519,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="698" spans="1:2">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>992</v>
       </c>
@@ -10529,7 +10527,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="699" spans="1:2">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>993</v>
       </c>
@@ -10537,7 +10535,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="700" spans="1:2">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>994</v>
       </c>
@@ -10545,7 +10543,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="701" spans="1:2">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>995</v>
       </c>
@@ -10553,7 +10551,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="702" spans="1:2">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>997</v>
       </c>
@@ -10561,7 +10559,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="703" spans="1:2">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>998</v>
       </c>
@@ -10569,7 +10567,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="704" spans="1:2">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>1000</v>
       </c>
@@ -10577,7 +10575,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="705" spans="1:2">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>1002</v>
       </c>
@@ -10585,7 +10583,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="706" spans="1:2">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>1004</v>
       </c>
@@ -10593,15 +10591,15 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="707" spans="1:2">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>1006</v>
       </c>
-      <c r="B707" s="1" t="s">
+      <c r="B707" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="708" spans="1:2">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>1008</v>
       </c>
@@ -10609,7 +10607,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="709" spans="1:2">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>1010</v>
       </c>
@@ -10617,7 +10615,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="710" spans="1:2">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>1012</v>
       </c>
@@ -10625,7 +10623,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="711" spans="1:2">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>1014</v>
       </c>
@@ -10633,7 +10631,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="712" spans="1:2">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>1016</v>
       </c>
@@ -10641,7 +10639,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="713" spans="1:2">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>1018</v>
       </c>
@@ -10649,7 +10647,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="714" spans="1:2">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>1020</v>
       </c>
@@ -10657,7 +10655,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="715" spans="1:2">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>1022</v>
       </c>
@@ -10665,7 +10663,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="716" spans="1:2">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>1024</v>
       </c>
@@ -10673,7 +10671,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="717" spans="1:2">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>1026</v>
       </c>
@@ -10681,7 +10679,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="718" spans="1:2">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>1028</v>
       </c>
@@ -10689,7 +10687,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="719" spans="1:2">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>1030</v>
       </c>
@@ -10697,7 +10695,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="720" spans="1:2">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>1032</v>
       </c>
@@ -10705,7 +10703,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="721" spans="1:2">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>1034</v>
       </c>
@@ -10713,7 +10711,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="722" spans="1:2">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>1036</v>
       </c>
@@ -10721,7 +10719,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="723" spans="1:2">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>1038</v>
       </c>
@@ -10729,7 +10727,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="724" spans="1:2">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>1039</v>
       </c>
@@ -10737,7 +10735,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="725" spans="1:2">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>1040</v>
       </c>
@@ -10745,7 +10743,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="726" spans="1:2">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>1041</v>
       </c>
@@ -10753,7 +10751,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="727" spans="1:2">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>1042</v>
       </c>
@@ -10761,7 +10759,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="728" spans="1:2">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
         <v>1044</v>
       </c>
@@ -10769,7 +10767,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="729" spans="1:2">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>1045</v>
       </c>
@@ -10777,7 +10775,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="730" spans="1:2">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
         <v>1046</v>
       </c>
@@ -10785,7 +10783,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="731" spans="1:2">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>1047</v>
       </c>
@@ -10793,7 +10791,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="732" spans="1:2">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>1048</v>
       </c>
@@ -10801,7 +10799,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="733" spans="1:2">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>1049</v>
       </c>
@@ -10809,7 +10807,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="734" spans="1:2">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
         <v>1050</v>
       </c>
@@ -10817,7 +10815,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="735" spans="1:2">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>1051</v>
       </c>
@@ -10825,7 +10823,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="736" spans="1:2">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
         <v>1053</v>
       </c>
@@ -10833,7 +10831,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="737" spans="1:2">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
         <v>1054</v>
       </c>
@@ -10841,7 +10839,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="738" spans="1:2">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
         <v>1055</v>
       </c>
@@ -10849,7 +10847,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="739" spans="1:2">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
         <v>1056</v>
       </c>
@@ -10857,7 +10855,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="740" spans="1:2">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
         <v>1057</v>
       </c>
@@ -10865,7 +10863,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="741" spans="1:2">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
         <v>1058</v>
       </c>
@@ -10873,7 +10871,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="742" spans="1:2">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
         <v>1059</v>
       </c>
@@ -10881,7 +10879,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="743" spans="1:2">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
         <v>1060</v>
       </c>
@@ -10889,7 +10887,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="744" spans="1:2">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
         <v>1061</v>
       </c>
@@ -10897,7 +10895,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="745" spans="1:2">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
         <v>1062</v>
       </c>
@@ -10905,7 +10903,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="746" spans="1:2">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
         <v>1063</v>
       </c>
@@ -10913,7 +10911,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="747" spans="1:2">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
         <v>1065</v>
       </c>
@@ -10921,7 +10919,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="748" spans="1:2">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
         <v>1066</v>
       </c>
@@ -10929,7 +10927,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="749" spans="1:2">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
         <v>1067</v>
       </c>
@@ -10937,7 +10935,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="750" spans="1:2">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
         <v>1068</v>
       </c>
@@ -10945,7 +10943,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="751" spans="1:2">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
         <v>1069</v>
       </c>
@@ -10953,7 +10951,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="752" spans="1:2">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
         <v>1070</v>
       </c>
@@ -10961,7 +10959,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="753" spans="1:2">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
         <v>1071</v>
       </c>
@@ -10969,7 +10967,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="754" spans="1:2">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
         <v>1072</v>
       </c>
@@ -10977,7 +10975,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="755" spans="1:2">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
         <v>1073</v>
       </c>
@@ -10985,7 +10983,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="756" spans="1:2">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
         <v>1074</v>
       </c>
@@ -10993,7 +10991,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="757" spans="1:2">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
         <v>1075</v>
       </c>
@@ -11001,7 +10999,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="758" spans="1:2">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
         <v>1076</v>
       </c>
@@ -11009,7 +11007,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="759" spans="1:2">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
         <v>1077</v>
       </c>
@@ -11017,7 +11015,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="760" spans="1:2">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
         <v>1078</v>
       </c>
@@ -11025,7 +11023,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="761" spans="1:2">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
         <v>1079</v>
       </c>
@@ -11033,7 +11031,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="762" spans="1:2">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
         <v>1080</v>
       </c>
@@ -11041,7 +11039,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="763" spans="1:2">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
         <v>1081</v>
       </c>
@@ -11049,7 +11047,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="764" spans="1:2">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
         <v>1082</v>
       </c>
@@ -11057,7 +11055,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="765" spans="1:2">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
         <v>1083</v>
       </c>
@@ -11065,7 +11063,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="766" spans="1:2">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
         <v>1084</v>
       </c>
@@ -11073,7 +11071,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="767" spans="1:2">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
         <v>1085</v>
       </c>
@@ -11081,7 +11079,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="768" spans="1:2">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
         <v>1086</v>
       </c>
@@ -11089,7 +11087,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="769" spans="1:2">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
         <v>1087</v>
       </c>
@@ -11097,7 +11095,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="770" spans="1:2">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
         <v>1088</v>
       </c>
@@ -11105,7 +11103,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="771" spans="1:2">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
         <v>1089</v>
       </c>
@@ -11113,7 +11111,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="772" spans="1:2">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
         <v>1090</v>
       </c>
@@ -11121,7 +11119,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="773" spans="1:2">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
         <v>1091</v>
       </c>
@@ -11129,7 +11127,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="774" spans="1:2">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
         <v>1092</v>
       </c>
@@ -11137,7 +11135,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="775" spans="1:2">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
         <v>1093</v>
       </c>
@@ -11145,7 +11143,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="776" spans="1:2">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
         <v>1094</v>
       </c>
@@ -11153,7 +11151,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="777" spans="1:2">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
         <v>1095</v>
       </c>
@@ -11161,7 +11159,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="778" spans="1:2">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
         <v>1096</v>
       </c>
@@ -11169,7 +11167,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="779" spans="1:2">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
         <v>1097</v>
       </c>
@@ -11177,7 +11175,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="780" spans="1:2">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A780" t="s">
         <v>1098</v>
       </c>
@@ -11185,7 +11183,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="781" spans="1:2">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A781" t="s">
         <v>1099</v>
       </c>
@@ -11193,7 +11191,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="782" spans="1:2">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A782" t="s">
         <v>1100</v>
       </c>
@@ -11201,7 +11199,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="783" spans="1:2">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A783" t="s">
         <v>1101</v>
       </c>
@@ -11209,7 +11207,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="784" spans="1:2">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
         <v>1102</v>
       </c>
@@ -11217,7 +11215,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="785" spans="1:2">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A785" t="s">
         <v>1103</v>
       </c>
@@ -11225,7 +11223,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="786" spans="1:2">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
         <v>1104</v>
       </c>
@@ -11233,7 +11231,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="787" spans="1:2">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
         <v>1105</v>
       </c>
@@ -11241,7 +11239,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="788" spans="1:2">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
         <v>1107</v>
       </c>
@@ -11249,7 +11247,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="789" spans="1:2">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
         <v>1108</v>
       </c>
@@ -11257,7 +11255,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="790" spans="1:2">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
         <v>1109</v>
       </c>
@@ -11265,7 +11263,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="791" spans="1:2">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
         <v>1110</v>
       </c>
@@ -11273,7 +11271,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="792" spans="1:2">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
         <v>1111</v>
       </c>
@@ -11281,7 +11279,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="793" spans="1:2">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
         <v>1112</v>
       </c>
@@ -11289,7 +11287,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="794" spans="1:2">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
         <v>1113</v>
       </c>
@@ -11297,7 +11295,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="795" spans="1:2">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
         <v>1114</v>
       </c>
@@ -11305,7 +11303,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="796" spans="1:2">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A796" t="s">
         <v>1115</v>
       </c>
@@ -11313,7 +11311,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="797" spans="1:2">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
         <v>1116</v>
       </c>
@@ -11321,7 +11319,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="798" spans="1:2">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A798" t="s">
         <v>1117</v>
       </c>
@@ -11329,7 +11327,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="799" spans="1:2">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
         <v>1118</v>
       </c>
@@ -11337,7 +11335,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="800" spans="1:2">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A800" t="s">
         <v>1119</v>
       </c>
@@ -11345,7 +11343,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="801" spans="1:2">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
         <v>1120</v>
       </c>
@@ -11353,7 +11351,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="802" spans="1:2">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A802" t="s">
         <v>1121</v>
       </c>
@@ -11361,7 +11359,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="803" spans="1:2">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A803" t="s">
         <v>1122</v>
       </c>
@@ -11369,7 +11367,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="804" spans="1:2">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A804" t="s">
         <v>1124</v>
       </c>
@@ -11377,7 +11375,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="805" spans="1:2">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A805" t="s">
         <v>1126</v>
       </c>
@@ -11385,7 +11383,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="806" spans="1:2">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A806" t="s">
         <v>1128</v>
       </c>
@@ -11393,7 +11391,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="807" spans="1:2">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
         <v>1130</v>
       </c>
@@ -11401,7 +11399,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="808" spans="1:2">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A808" t="s">
         <v>1132</v>
       </c>
@@ -11409,7 +11407,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="809" spans="1:2">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A809" t="s">
         <v>1134</v>
       </c>
@@ -11417,7 +11415,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="810" spans="1:2">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A810" t="s">
         <v>1136</v>
       </c>
@@ -11425,7 +11423,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="811" spans="1:2">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A811" t="s">
         <v>1138</v>
       </c>
@@ -11433,7 +11431,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="812" spans="1:2">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A812" t="s">
         <v>1139</v>
       </c>
@@ -11441,7 +11439,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="813" spans="1:2">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
         <v>1140</v>
       </c>
@@ -11449,7 +11447,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="814" spans="1:2">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A814" t="s">
         <v>1141</v>
       </c>
@@ -11457,7 +11455,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="815" spans="1:2">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A815" t="s">
         <v>1142</v>
       </c>
@@ -11465,7 +11463,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="816" spans="1:2">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
         <v>1143</v>
       </c>
@@ -11473,7 +11471,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="817" spans="1:2">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A817" t="s">
         <v>1144</v>
       </c>
@@ -11481,7 +11479,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="818" spans="1:2">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
         <v>1145</v>
       </c>
@@ -11489,7 +11487,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="819" spans="1:2">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A819" t="s">
         <v>1147</v>
       </c>
@@ -11497,7 +11495,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="820" spans="1:2">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A820" t="s">
         <v>1148</v>
       </c>
@@ -11505,7 +11503,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="821" spans="1:2">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A821" t="s">
         <v>1150</v>
       </c>
@@ -11513,7 +11511,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="822" spans="1:2">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A822" t="s">
         <v>1151</v>
       </c>
@@ -11521,7 +11519,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="823" spans="1:2">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A823" t="s">
         <v>1152</v>
       </c>
@@ -11529,7 +11527,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="824" spans="1:2">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A824" t="s">
         <v>1154</v>
       </c>
@@ -11537,7 +11535,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="825" spans="1:2">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A825" t="s">
         <v>1156</v>
       </c>
@@ -11545,7 +11543,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="826" spans="1:2">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A826" t="s">
         <v>1158</v>
       </c>
@@ -11553,7 +11551,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="827" spans="1:2">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A827" t="s">
         <v>1160</v>
       </c>
@@ -11561,7 +11559,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="828" spans="1:2">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A828" t="s">
         <v>1162</v>
       </c>
@@ -11569,7 +11567,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="829" spans="1:2">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A829" t="s">
         <v>1164</v>
       </c>
@@ -11577,7 +11575,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="830" spans="1:2">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A830" t="s">
         <v>1166</v>
       </c>
@@ -11585,7 +11583,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="831" spans="1:2">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A831" t="s">
         <v>1168</v>
       </c>
@@ -11593,7 +11591,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="832" spans="1:2">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
         <v>1170</v>
       </c>
@@ -11601,7 +11599,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="833" spans="1:2">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A833" t="s">
         <v>1172</v>
       </c>
@@ -11609,7 +11607,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="834" spans="1:2">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A834" t="s">
         <v>1173</v>
       </c>
@@ -11617,7 +11615,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="835" spans="1:2">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A835" t="s">
         <v>1174</v>
       </c>
@@ -11625,7 +11623,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="836" spans="1:2">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A836" t="s">
         <v>1175</v>
       </c>
@@ -11633,7 +11631,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="837" spans="1:2">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A837" t="s">
         <v>1176</v>
       </c>
@@ -11641,7 +11639,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="838" spans="1:2">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A838" t="s">
         <v>1177</v>
       </c>
@@ -11649,7 +11647,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="839" spans="1:2">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A839" t="s">
         <v>1178</v>
       </c>
@@ -11657,7 +11655,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="840" spans="1:2">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A840" t="s">
         <v>1179</v>
       </c>
@@ -11665,7 +11663,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="841" spans="1:2">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A841" t="s">
         <v>1180</v>
       </c>
@@ -11673,7 +11671,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="842" spans="1:2">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A842" t="s">
         <v>1181</v>
       </c>
@@ -11681,7 +11679,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="843" spans="1:2">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A843" t="s">
         <v>1182</v>
       </c>
@@ -11689,7 +11687,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="844" spans="1:2">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A844" t="s">
         <v>1183</v>
       </c>
@@ -11697,7 +11695,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="845" spans="1:2">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A845" t="s">
         <v>1184</v>
       </c>
@@ -11705,7 +11703,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="846" spans="1:2">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A846" t="s">
         <v>1185</v>
       </c>
@@ -11713,7 +11711,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="847" spans="1:2">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A847" t="s">
         <v>1186</v>
       </c>
@@ -11721,7 +11719,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="848" spans="1:2">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A848" t="s">
         <v>1187</v>
       </c>
@@ -11729,7 +11727,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="849" spans="1:2">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A849" t="s">
         <v>1188</v>
       </c>
@@ -11737,7 +11735,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="850" spans="1:2">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A850" t="s">
         <v>1189</v>
       </c>
@@ -11745,7 +11743,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="851" spans="1:2">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A851" t="s">
         <v>1190</v>
       </c>
@@ -11753,7 +11751,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="852" spans="1:2">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A852" t="s">
         <v>1191</v>
       </c>
@@ -11761,7 +11759,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="853" spans="1:2">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A853" t="s">
         <v>1192</v>
       </c>
@@ -11769,7 +11767,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="854" spans="1:2">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A854" t="s">
         <v>1193</v>
       </c>
@@ -11777,7 +11775,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="855" spans="1:2">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A855" t="s">
         <v>1194</v>
       </c>
@@ -11785,7 +11783,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="856" spans="1:2">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A856" t="s">
         <v>1195</v>
       </c>
@@ -11793,7 +11791,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="857" spans="1:2">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A857" t="s">
         <v>1196</v>
       </c>
@@ -11801,7 +11799,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="858" spans="1:2">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A858" t="s">
         <v>1197</v>
       </c>
@@ -11809,7 +11807,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="859" spans="1:2">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A859" t="s">
         <v>1198</v>
       </c>
@@ -11817,7 +11815,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="860" spans="1:2">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A860" t="s">
         <v>1199</v>
       </c>
@@ -11825,7 +11823,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="861" spans="1:2">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A861" t="s">
         <v>1200</v>
       </c>
@@ -11833,7 +11831,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="862" spans="1:2">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A862" t="s">
         <v>1201</v>
       </c>
@@ -11841,7 +11839,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="863" spans="1:2">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A863" t="s">
         <v>1202</v>
       </c>
@@ -11849,7 +11847,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="864" spans="1:2">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A864" t="s">
         <v>1203</v>
       </c>
@@ -11857,7 +11855,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="865" spans="1:2">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A865" t="s">
         <v>1204</v>
       </c>
@@ -11865,7 +11863,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="866" spans="1:2">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A866" t="s">
         <v>1205</v>
       </c>
@@ -11873,7 +11871,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="867" spans="1:2">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A867" t="s">
         <v>1206</v>
       </c>
@@ -11881,7 +11879,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="868" spans="1:2">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A868" t="s">
         <v>1207</v>
       </c>
@@ -11889,7 +11887,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="869" spans="1:2">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A869" t="s">
         <v>1208</v>
       </c>
@@ -11897,7 +11895,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="870" spans="1:2">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A870" t="s">
         <v>1209</v>
       </c>
@@ -11905,7 +11903,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="871" spans="1:2">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A871" t="s">
         <v>1210</v>
       </c>
@@ -11913,7 +11911,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="872" spans="1:2">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A872" t="s">
         <v>1211</v>
       </c>
@@ -11921,7 +11919,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="873" spans="1:2">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A873" t="s">
         <v>1212</v>
       </c>
@@ -11929,7 +11927,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="874" spans="1:2">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A874" t="s">
         <v>1213</v>
       </c>
@@ -11937,7 +11935,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="875" spans="1:2">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A875" t="s">
         <v>1214</v>
       </c>
@@ -11945,7 +11943,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="876" spans="1:2">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A876" t="s">
         <v>1215</v>
       </c>
@@ -11953,7 +11951,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="877" spans="1:2">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A877" t="s">
         <v>1216</v>
       </c>
@@ -11961,7 +11959,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="878" spans="1:2">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A878" t="s">
         <v>1217</v>
       </c>
@@ -11969,7 +11967,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="879" spans="1:2">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A879" t="s">
         <v>1218</v>
       </c>
@@ -11977,7 +11975,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="880" spans="1:2">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A880" t="s">
         <v>1219</v>
       </c>
@@ -11985,7 +11983,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="881" spans="1:2">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A881" t="s">
         <v>1220</v>
       </c>
@@ -11993,7 +11991,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="882" spans="1:2">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A882" t="s">
         <v>1221</v>
       </c>
@@ -12001,7 +11999,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="883" spans="1:2">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A883" t="s">
         <v>1222</v>
       </c>
@@ -12009,7 +12007,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="884" spans="1:2">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A884" t="s">
         <v>1223</v>
       </c>
@@ -12017,7 +12015,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="885" spans="1:2">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A885" t="s">
         <v>1224</v>
       </c>
@@ -12025,7 +12023,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="886" spans="1:2">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A886" t="s">
         <v>1226</v>
       </c>
@@ -12033,7 +12031,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="887" spans="1:2">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A887" t="s">
         <v>1228</v>
       </c>
@@ -12041,7 +12039,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="888" spans="1:2">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A888" t="s">
         <v>1230</v>
       </c>
@@ -12049,7 +12047,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="889" spans="1:2">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A889" t="s">
         <v>1232</v>
       </c>
@@ -12057,7 +12055,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="890" spans="1:2">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A890" t="s">
         <v>1234</v>
       </c>
@@ -12065,7 +12063,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="891" spans="1:2">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A891" t="s">
         <v>1236</v>
       </c>
@@ -12073,7 +12071,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="892" spans="1:2">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A892" t="s">
         <v>1238</v>
       </c>
@@ -12081,7 +12079,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="893" spans="1:2">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A893" t="s">
         <v>1240</v>
       </c>
@@ -12089,7 +12087,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="894" spans="1:2">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A894" t="s">
         <v>1241</v>
       </c>
@@ -12097,7 +12095,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="895" spans="1:2">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A895" t="s">
         <v>1242</v>
       </c>
@@ -12105,7 +12103,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="896" spans="1:2">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A896" t="s">
         <v>1243</v>
       </c>
@@ -12113,7 +12111,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="897" spans="1:2">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A897" t="s">
         <v>1244</v>
       </c>
@@ -12121,7 +12119,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="898" spans="1:2">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A898" t="s">
         <v>1246</v>
       </c>
@@ -12129,7 +12127,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="899" spans="1:2">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A899" t="s">
         <v>1247</v>
       </c>
@@ -12137,7 +12135,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="900" spans="1:2">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A900" t="s">
         <v>1249</v>
       </c>
@@ -12145,7 +12143,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="901" spans="1:2">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A901" t="s">
         <v>1250</v>
       </c>
@@ -12153,7 +12151,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="902" spans="1:2">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A902" t="s">
         <v>1251</v>
       </c>
@@ -12161,7 +12159,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="903" spans="1:2">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A903" t="s">
         <v>1253</v>
       </c>
@@ -12169,7 +12167,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="904" spans="1:2">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A904" t="s">
         <v>1255</v>
       </c>
@@ -12177,7 +12175,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="905" spans="1:2">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A905" t="s">
         <v>1257</v>
       </c>
@@ -12185,7 +12183,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="906" spans="1:2">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A906" t="s">
         <v>1258</v>
       </c>
@@ -12193,7 +12191,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="907" spans="1:2">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A907" t="s">
         <v>1259</v>
       </c>
@@ -12201,7 +12199,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="908" spans="1:2">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A908" t="s">
         <v>1260</v>
       </c>
@@ -12209,7 +12207,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="909" spans="1:2">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A909" t="s">
         <v>1261</v>
       </c>
@@ -12217,7 +12215,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="910" spans="1:2">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A910" t="s">
         <v>1262</v>
       </c>
@@ -12225,7 +12223,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="911" spans="1:2">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A911" t="s">
         <v>1263</v>
       </c>
@@ -12233,7 +12231,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="912" spans="1:2">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A912" t="s">
         <v>1264</v>
       </c>
@@ -12241,7 +12239,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="913" spans="1:2">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A913" t="s">
         <v>1265</v>
       </c>
@@ -12249,7 +12247,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="914" spans="1:2">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A914" t="s">
         <v>1266</v>
       </c>
@@ -12257,7 +12255,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="915" spans="1:2">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A915" t="s">
         <v>1267</v>
       </c>
@@ -12265,7 +12263,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="916" spans="1:2">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A916" t="s">
         <v>1268</v>
       </c>
@@ -12273,7 +12271,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="917" spans="1:2">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A917" t="s">
         <v>1269</v>
       </c>
@@ -12281,7 +12279,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="918" spans="1:2">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A918" t="s">
         <v>1270</v>
       </c>
@@ -12289,7 +12287,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="919" spans="1:2">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A919" t="s">
         <v>1271</v>
       </c>
@@ -12297,7 +12295,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="920" spans="1:2">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A920" t="s">
         <v>1272</v>
       </c>
@@ -12305,7 +12303,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="921" spans="1:2">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A921" t="s">
         <v>1273</v>
       </c>
@@ -12313,7 +12311,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="922" spans="1:2">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A922" t="s">
         <v>1274</v>
       </c>
@@ -12321,7 +12319,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="923" spans="1:2">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A923" t="s">
         <v>1275</v>
       </c>
@@ -12329,7 +12327,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="924" spans="1:2">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A924" t="s">
         <v>1276</v>
       </c>
@@ -12337,7 +12335,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="925" spans="1:2">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A925" t="s">
         <v>1277</v>
       </c>
@@ -12345,7 +12343,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="926" spans="1:2">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A926" t="s">
         <v>1278</v>
       </c>
@@ -12353,7 +12351,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="927" spans="1:2">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A927" t="s">
         <v>1279</v>
       </c>
@@ -12361,7 +12359,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="928" spans="1:2">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A928" t="s">
         <v>1280</v>
       </c>
@@ -12369,7 +12367,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="929" spans="1:2">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A929" t="s">
         <v>1281</v>
       </c>
@@ -12377,7 +12375,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="930" spans="1:2">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A930" t="s">
         <v>1283</v>
       </c>
@@ -12385,7 +12383,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="931" spans="1:2">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A931" t="s">
         <v>1285</v>
       </c>
@@ -12393,7 +12391,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="932" spans="1:2">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A932" t="s">
         <v>1287</v>
       </c>
@@ -12401,7 +12399,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="933" spans="1:2">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A933" t="s">
         <v>1289</v>
       </c>
@@ -12409,7 +12407,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="934" spans="1:2">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A934" t="s">
         <v>1291</v>
       </c>
@@ -12417,7 +12415,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="935" spans="1:2">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A935" t="s">
         <v>1293</v>
       </c>
@@ -12425,7 +12423,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="936" spans="1:2">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A936" t="s">
         <v>1295</v>
       </c>
@@ -12433,7 +12431,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="937" spans="1:2">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A937" t="s">
         <v>1297</v>
       </c>
@@ -12441,7 +12439,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="938" spans="1:2">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A938" t="s">
         <v>1299</v>
       </c>
@@ -12449,7 +12447,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="939" spans="1:2">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A939" t="s">
         <v>1301</v>
       </c>
@@ -12457,7 +12455,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="940" spans="1:2">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A940" t="s">
         <v>1303</v>
       </c>
@@ -12465,7 +12463,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="941" spans="1:2">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A941" t="s">
         <v>1305</v>
       </c>
@@ -12473,7 +12471,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="942" spans="1:2">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A942" t="s">
         <v>1307</v>
       </c>
@@ -12481,7 +12479,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="943" spans="1:2">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A943" t="s">
         <v>1309</v>
       </c>
@@ -12489,7 +12487,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="944" spans="1:2">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A944" t="s">
         <v>1311</v>
       </c>
@@ -12497,7 +12495,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="945" spans="1:2">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A945" t="s">
         <v>1313</v>
       </c>
@@ -12505,7 +12503,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="946" spans="1:2">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A946" t="s">
         <v>1315</v>
       </c>
@@ -12513,7 +12511,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="947" spans="1:2">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A947" t="s">
         <v>1317</v>
       </c>
@@ -12521,7 +12519,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="948" spans="1:2">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A948" t="s">
         <v>1319</v>
       </c>
@@ -12529,7 +12527,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="949" spans="1:2">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A949" t="s">
         <v>1321</v>
       </c>
@@ -12537,7 +12535,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="950" spans="1:2">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A950" t="s">
         <v>1323</v>
       </c>
@@ -12545,7 +12543,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="951" spans="1:2">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A951" t="s">
         <v>1325</v>
       </c>
@@ -12553,7 +12551,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="952" spans="1:2">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A952" t="s">
         <v>1327</v>
       </c>
@@ -12561,7 +12559,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="953" spans="1:2">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A953" t="s">
         <v>1329</v>
       </c>
@@ -12569,7 +12567,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="954" spans="1:2">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A954" t="s">
         <v>1331</v>
       </c>
@@ -12577,7 +12575,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="955" spans="1:2">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A955" t="s">
         <v>1333</v>
       </c>
@@ -12585,7 +12583,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="956" spans="1:2">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A956" t="s">
         <v>1335</v>
       </c>
@@ -12593,7 +12591,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="957" spans="1:2">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A957" t="s">
         <v>1337</v>
       </c>
@@ -12601,7 +12599,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="958" spans="1:2">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A958" t="s">
         <v>1339</v>
       </c>
@@ -12609,7 +12607,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="959" spans="1:2">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A959" t="s">
         <v>1340</v>
       </c>
@@ -12617,7 +12615,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="960" spans="1:2">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A960" t="s">
         <v>1341</v>
       </c>
@@ -12625,7 +12623,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="961" spans="1:2">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A961" t="s">
         <v>1342</v>
       </c>
@@ -12633,7 +12631,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="962" spans="1:2">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A962" t="s">
         <v>1343</v>
       </c>
@@ -12641,7 +12639,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="963" spans="1:2">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A963" t="s">
         <v>1344</v>
       </c>

--- a/Tool/columns.xlsx
+++ b/Tool/columns.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d4a9fd65a6bad53/Seun/2. Career and business/3. IQVIA-Asiwaju-PC/Analysis/tHFA/Tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d4a9fd65a6bad53/Seun/3. Career and business/3. IQVIA-Asiwaju-PC/Analysis/tHFA/Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{E1511F1F-D8A7-4D42-928E-E9E384E9A26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BB0B7C5-5E19-4AC3-83E7-C26838CEC97E}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{E1511F1F-D8A7-4D42-928E-E9E384E9A26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DA087F2-8718-46E5-A958-68376E006CE1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{92F174B8-707D-4AB0-8456-4EDDF9CBD9F1}"/>
+    <workbookView xWindow="1170" yWindow="0" windowWidth="11460" windowHeight="11520" xr2:uid="{92F174B8-707D-4AB0-8456-4EDDF9CBD9F1}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">in!$A$1:$A$963</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4573,9 +4575,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4931,19 +4932,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB82BDAF-638F-492F-AA5C-88C3F27D6AAA}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:B963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A869" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I875" sqref="I875"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" customWidth="1"/>
-    <col min="2" max="2" width="8.90625"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4951,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4959,7 +4961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4967,7 +4969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4975,7 +4977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4983,7 +4985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4991,7 +4993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4999,7 +5001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5007,7 +5009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5015,7 +5017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5023,7 +5025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5031,7 +5033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -5039,7 +5041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -5047,7 +5049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -5055,7 +5057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -5063,7 +5065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -5071,7 +5073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -5079,7 +5081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -5087,7 +5089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -5095,7 +5097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -5103,7 +5105,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -5111,7 +5113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -5119,7 +5121,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -5127,7 +5129,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -5135,7 +5137,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -5143,7 +5145,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5151,7 +5153,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -5159,7 +5161,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -5167,7 +5169,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -5175,7 +5177,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -5183,7 +5185,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -5191,7 +5193,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -5199,7 +5201,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -5207,7 +5209,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -5215,7 +5217,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -5223,7 +5225,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -5231,7 +5233,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -5239,7 +5241,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -5247,7 +5249,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -5255,15 +5257,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -5271,7 +5273,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -5279,7 +5281,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -5287,7 +5289,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -5295,7 +5297,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -5303,7 +5305,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -5311,7 +5313,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -5319,7 +5321,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -5327,7 +5329,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -5335,7 +5337,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -5343,7 +5345,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -5351,7 +5353,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -5359,7 +5361,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>90</v>
       </c>
@@ -5367,7 +5369,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>92</v>
       </c>
@@ -5375,7 +5377,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -5383,7 +5385,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -5391,7 +5393,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>98</v>
       </c>
@@ -5399,7 +5401,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>100</v>
       </c>
@@ -5407,7 +5409,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -5415,7 +5417,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>104</v>
       </c>
@@ -5423,7 +5425,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -5431,7 +5433,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -5439,7 +5441,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -5447,7 +5449,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -5455,7 +5457,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -5463,7 +5465,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -5471,7 +5473,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -5479,7 +5481,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -5487,7 +5489,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>122</v>
       </c>
@@ -5495,7 +5497,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>124</v>
       </c>
@@ -5503,7 +5505,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>126</v>
       </c>
@@ -5511,7 +5513,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>128</v>
       </c>
@@ -5519,7 +5521,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>130</v>
       </c>
@@ -5527,7 +5529,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>132</v>
       </c>
@@ -5535,7 +5537,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>134</v>
       </c>
@@ -5543,7 +5545,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -5551,7 +5553,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -5559,7 +5561,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>140</v>
       </c>
@@ -5567,7 +5569,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>142</v>
       </c>
@@ -5575,7 +5577,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>144</v>
       </c>
@@ -5583,7 +5585,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>146</v>
       </c>
@@ -5591,7 +5593,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>148</v>
       </c>
@@ -5599,7 +5601,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>149</v>
       </c>
@@ -5607,7 +5609,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>151</v>
       </c>
@@ -5615,7 +5617,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>152</v>
       </c>
@@ -5623,7 +5625,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>154</v>
       </c>
@@ -5631,7 +5633,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -5639,7 +5641,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>157</v>
       </c>
@@ -5647,7 +5649,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>158</v>
       </c>
@@ -5655,7 +5657,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>160</v>
       </c>
@@ -5663,7 +5665,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>161</v>
       </c>
@@ -5671,7 +5673,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>163</v>
       </c>
@@ -5679,7 +5681,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>164</v>
       </c>
@@ -5687,7 +5689,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>166</v>
       </c>
@@ -5695,7 +5697,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>167</v>
       </c>
@@ -5703,7 +5705,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>169</v>
       </c>
@@ -5711,7 +5713,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>170</v>
       </c>
@@ -5719,7 +5721,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>172</v>
       </c>
@@ -5727,7 +5729,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>173</v>
       </c>
@@ -5735,7 +5737,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>175</v>
       </c>
@@ -5743,7 +5745,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>176</v>
       </c>
@@ -5751,7 +5753,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>178</v>
       </c>
@@ -5759,7 +5761,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>179</v>
       </c>
@@ -5767,7 +5769,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>181</v>
       </c>
@@ -5775,7 +5777,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>182</v>
       </c>
@@ -5783,7 +5785,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>184</v>
       </c>
@@ -5791,7 +5793,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>185</v>
       </c>
@@ -5799,7 +5801,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>187</v>
       </c>
@@ -5807,7 +5809,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>188</v>
       </c>
@@ -5815,7 +5817,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>190</v>
       </c>
@@ -5823,7 +5825,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>191</v>
       </c>
@@ -5831,7 +5833,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>193</v>
       </c>
@@ -5839,7 +5841,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>194</v>
       </c>
@@ -5847,7 +5849,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>196</v>
       </c>
@@ -5855,7 +5857,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>197</v>
       </c>
@@ -5863,7 +5865,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>199</v>
       </c>
@@ -5871,7 +5873,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>200</v>
       </c>
@@ -5879,7 +5881,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>202</v>
       </c>
@@ -5887,7 +5889,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>203</v>
       </c>
@@ -5895,7 +5897,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>205</v>
       </c>
@@ -5903,7 +5905,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>206</v>
       </c>
@@ -5911,7 +5913,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>208</v>
       </c>
@@ -5919,7 +5921,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>209</v>
       </c>
@@ -5927,7 +5929,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>211</v>
       </c>
@@ -5935,7 +5937,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>212</v>
       </c>
@@ -5943,7 +5945,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>214</v>
       </c>
@@ -5951,7 +5953,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>215</v>
       </c>
@@ -5959,7 +5961,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>217</v>
       </c>
@@ -5967,7 +5969,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>218</v>
       </c>
@@ -5975,7 +5977,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>220</v>
       </c>
@@ -5983,7 +5985,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>221</v>
       </c>
@@ -5991,7 +5993,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>223</v>
       </c>
@@ -5999,7 +6001,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>224</v>
       </c>
@@ -6007,7 +6009,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>226</v>
       </c>
@@ -6015,7 +6017,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>227</v>
       </c>
@@ -6023,7 +6025,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>229</v>
       </c>
@@ -6031,7 +6033,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>230</v>
       </c>
@@ -6039,7 +6041,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>232</v>
       </c>
@@ -6047,7 +6049,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>233</v>
       </c>
@@ -6055,7 +6057,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>235</v>
       </c>
@@ -6063,7 +6065,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>236</v>
       </c>
@@ -6071,7 +6073,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>238</v>
       </c>
@@ -6079,7 +6081,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>240</v>
       </c>
@@ -6087,7 +6089,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>242</v>
       </c>
@@ -6095,7 +6097,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>244</v>
       </c>
@@ -6103,7 +6105,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>246</v>
       </c>
@@ -6111,7 +6113,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>248</v>
       </c>
@@ -6119,7 +6121,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>250</v>
       </c>
@@ -6127,7 +6129,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>252</v>
       </c>
@@ -6135,7 +6137,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>254</v>
       </c>
@@ -6143,7 +6145,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>256</v>
       </c>
@@ -6151,7 +6153,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>258</v>
       </c>
@@ -6159,7 +6161,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>260</v>
       </c>
@@ -6167,7 +6169,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>262</v>
       </c>
@@ -6175,7 +6177,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>264</v>
       </c>
@@ -6183,7 +6185,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>266</v>
       </c>
@@ -6191,7 +6193,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>268</v>
       </c>
@@ -6199,7 +6201,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>270</v>
       </c>
@@ -6207,7 +6209,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>272</v>
       </c>
@@ -6215,7 +6217,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>274</v>
       </c>
@@ -6223,7 +6225,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>276</v>
       </c>
@@ -6231,7 +6233,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>278</v>
       </c>
@@ -6239,7 +6241,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>280</v>
       </c>
@@ -6247,7 +6249,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>282</v>
       </c>
@@ -6255,7 +6257,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>284</v>
       </c>
@@ -6263,7 +6265,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>286</v>
       </c>
@@ -6271,7 +6273,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>288</v>
       </c>
@@ -6279,7 +6281,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>290</v>
       </c>
@@ -6287,7 +6289,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>292</v>
       </c>
@@ -6295,7 +6297,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>294</v>
       </c>
@@ -6303,7 +6305,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>296</v>
       </c>
@@ -6311,7 +6313,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>298</v>
       </c>
@@ -6319,7 +6321,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>300</v>
       </c>
@@ -6327,7 +6329,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>302</v>
       </c>
@@ -6335,7 +6337,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>304</v>
       </c>
@@ -6343,7 +6345,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>306</v>
       </c>
@@ -6351,7 +6353,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>308</v>
       </c>
@@ -6359,7 +6361,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>310</v>
       </c>
@@ -6367,7 +6369,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>312</v>
       </c>
@@ -6375,7 +6377,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>314</v>
       </c>
@@ -6383,7 +6385,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>316</v>
       </c>
@@ -6391,7 +6393,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>318</v>
       </c>
@@ -6399,7 +6401,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>320</v>
       </c>
@@ -6407,7 +6409,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>322</v>
       </c>
@@ -6415,7 +6417,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>324</v>
       </c>
@@ -6423,7 +6425,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>326</v>
       </c>
@@ -6431,7 +6433,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>328</v>
       </c>
@@ -6439,7 +6441,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>330</v>
       </c>
@@ -6447,7 +6449,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>332</v>
       </c>
@@ -6455,7 +6457,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>334</v>
       </c>
@@ -6463,7 +6465,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>336</v>
       </c>
@@ -6471,7 +6473,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>338</v>
       </c>
@@ -6479,7 +6481,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>340</v>
       </c>
@@ -6487,7 +6489,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>342</v>
       </c>
@@ -6495,7 +6497,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>344</v>
       </c>
@@ -6503,7 +6505,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>346</v>
       </c>
@@ -6511,7 +6513,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>348</v>
       </c>
@@ -6519,7 +6521,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>350</v>
       </c>
@@ -6527,7 +6529,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>352</v>
       </c>
@@ -6535,7 +6537,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>354</v>
       </c>
@@ -6543,7 +6545,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>356</v>
       </c>
@@ -6551,7 +6553,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>358</v>
       </c>
@@ -6559,7 +6561,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>360</v>
       </c>
@@ -6567,7 +6569,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>362</v>
       </c>
@@ -6575,7 +6577,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>364</v>
       </c>
@@ -6583,7 +6585,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>366</v>
       </c>
@@ -6591,7 +6593,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>368</v>
       </c>
@@ -6599,7 +6601,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>370</v>
       </c>
@@ -6607,7 +6609,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>372</v>
       </c>
@@ -6615,7 +6617,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>374</v>
       </c>
@@ -6623,7 +6625,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>376</v>
       </c>
@@ -6631,7 +6633,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>378</v>
       </c>
@@ -6639,7 +6641,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>380</v>
       </c>
@@ -6647,7 +6649,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>382</v>
       </c>
@@ -6655,7 +6657,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>384</v>
       </c>
@@ -6663,7 +6665,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>386</v>
       </c>
@@ -6671,7 +6673,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>388</v>
       </c>
@@ -6679,7 +6681,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>390</v>
       </c>
@@ -6687,7 +6689,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>392</v>
       </c>
@@ -6695,7 +6697,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>394</v>
       </c>
@@ -6703,7 +6705,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>396</v>
       </c>
@@ -6711,7 +6713,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>398</v>
       </c>
@@ -6719,7 +6721,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>400</v>
       </c>
@@ -6727,7 +6729,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>402</v>
       </c>
@@ -6735,7 +6737,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>404</v>
       </c>
@@ -6743,7 +6745,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>406</v>
       </c>
@@ -6751,7 +6753,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>408</v>
       </c>
@@ -6759,7 +6761,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>410</v>
       </c>
@@ -6767,7 +6769,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>412</v>
       </c>
@@ -6775,7 +6777,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>414</v>
       </c>
@@ -6783,7 +6785,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>416</v>
       </c>
@@ -6791,7 +6793,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>418</v>
       </c>
@@ -6799,7 +6801,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>420</v>
       </c>
@@ -6807,7 +6809,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>422</v>
       </c>
@@ -6815,7 +6817,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>424</v>
       </c>
@@ -6823,7 +6825,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>426</v>
       </c>
@@ -6831,7 +6833,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>428</v>
       </c>
@@ -6839,7 +6841,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>430</v>
       </c>
@@ -6847,7 +6849,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>432</v>
       </c>
@@ -6855,7 +6857,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>434</v>
       </c>
@@ -6863,7 +6865,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>436</v>
       </c>
@@ -6871,7 +6873,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>438</v>
       </c>
@@ -6879,7 +6881,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>440</v>
       </c>
@@ -6887,7 +6889,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>442</v>
       </c>
@@ -6895,7 +6897,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>444</v>
       </c>
@@ -6903,7 +6905,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>446</v>
       </c>
@@ -6911,7 +6913,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>448</v>
       </c>
@@ -6919,7 +6921,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>450</v>
       </c>
@@ -6927,7 +6929,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>452</v>
       </c>
@@ -6935,7 +6937,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>454</v>
       </c>
@@ -6943,7 +6945,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>456</v>
       </c>
@@ -6951,7 +6953,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>458</v>
       </c>
@@ -6959,7 +6961,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>460</v>
       </c>
@@ -6967,7 +6969,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>462</v>
       </c>
@@ -6975,7 +6977,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>464</v>
       </c>
@@ -6983,7 +6985,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>466</v>
       </c>
@@ -6991,7 +6993,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>467</v>
       </c>
@@ -6999,7 +7001,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>469</v>
       </c>
@@ -7007,7 +7009,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>471</v>
       </c>
@@ -7015,7 +7017,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>473</v>
       </c>
@@ -7023,7 +7025,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>475</v>
       </c>
@@ -7031,7 +7033,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>477</v>
       </c>
@@ -7039,7 +7041,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>479</v>
       </c>
@@ -7047,7 +7049,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>481</v>
       </c>
@@ -7055,7 +7057,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>483</v>
       </c>
@@ -7063,7 +7065,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>485</v>
       </c>
@@ -7071,7 +7073,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>487</v>
       </c>
@@ -7079,7 +7081,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>489</v>
       </c>
@@ -7087,7 +7089,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>491</v>
       </c>
@@ -7095,7 +7097,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>493</v>
       </c>
@@ -7103,7 +7105,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>495</v>
       </c>
@@ -7111,7 +7113,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>497</v>
       </c>
@@ -7119,7 +7121,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>499</v>
       </c>
@@ -7127,7 +7129,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>501</v>
       </c>
@@ -7135,7 +7137,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>503</v>
       </c>
@@ -7143,7 +7145,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>505</v>
       </c>
@@ -7151,7 +7153,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>506</v>
       </c>
@@ -7159,7 +7161,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>507</v>
       </c>
@@ -7167,7 +7169,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>508</v>
       </c>
@@ -7175,7 +7177,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>509</v>
       </c>
@@ -7183,7 +7185,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>510</v>
       </c>
@@ -7191,7 +7193,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>511</v>
       </c>
@@ -7199,7 +7201,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>512</v>
       </c>
@@ -7207,7 +7209,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>513</v>
       </c>
@@ -7215,7 +7217,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>514</v>
       </c>
@@ -7223,7 +7225,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>515</v>
       </c>
@@ -7231,7 +7233,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>517</v>
       </c>
@@ -7239,7 +7241,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>518</v>
       </c>
@@ -7247,7 +7249,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>519</v>
       </c>
@@ -7255,7 +7257,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>520</v>
       </c>
@@ -7263,7 +7265,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>521</v>
       </c>
@@ -7271,7 +7273,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>522</v>
       </c>
@@ -7279,7 +7281,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>523</v>
       </c>
@@ -7287,7 +7289,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>524</v>
       </c>
@@ -7295,7 +7297,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>525</v>
       </c>
@@ -7303,7 +7305,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>526</v>
       </c>
@@ -7311,7 +7313,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>527</v>
       </c>
@@ -7319,7 +7321,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>528</v>
       </c>
@@ -7327,7 +7329,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>529</v>
       </c>
@@ -7335,7 +7337,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>530</v>
       </c>
@@ -7343,7 +7345,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>531</v>
       </c>
@@ -7351,7 +7353,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>532</v>
       </c>
@@ -7359,7 +7361,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>533</v>
       </c>
@@ -7367,7 +7369,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>534</v>
       </c>
@@ -7375,7 +7377,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>535</v>
       </c>
@@ -7383,7 +7385,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>536</v>
       </c>
@@ -7391,7 +7393,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>537</v>
       </c>
@@ -7399,7 +7401,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>538</v>
       </c>
@@ -7407,7 +7409,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>539</v>
       </c>
@@ -7415,7 +7417,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>540</v>
       </c>
@@ -7423,7 +7425,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>541</v>
       </c>
@@ -7431,7 +7433,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>542</v>
       </c>
@@ -7439,7 +7441,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>543</v>
       </c>
@@ -7447,7 +7449,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>544</v>
       </c>
@@ -7455,7 +7457,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>545</v>
       </c>
@@ -7463,7 +7465,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>546</v>
       </c>
@@ -7471,7 +7473,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>547</v>
       </c>
@@ -7479,7 +7481,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>548</v>
       </c>
@@ -7487,7 +7489,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>549</v>
       </c>
@@ -7495,7 +7497,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>550</v>
       </c>
@@ -7503,7 +7505,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>551</v>
       </c>
@@ -7511,7 +7513,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>552</v>
       </c>
@@ -7519,7 +7521,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>553</v>
       </c>
@@ -7527,7 +7529,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>554</v>
       </c>
@@ -7535,7 +7537,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>555</v>
       </c>
@@ -7543,7 +7545,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>556</v>
       </c>
@@ -7551,7 +7553,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>557</v>
       </c>
@@ -7559,7 +7561,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>558</v>
       </c>
@@ -7567,7 +7569,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>559</v>
       </c>
@@ -7575,7 +7577,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>560</v>
       </c>
@@ -7583,7 +7585,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>561</v>
       </c>
@@ -7591,7 +7593,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>562</v>
       </c>
@@ -7599,7 +7601,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>563</v>
       </c>
@@ -7607,7 +7609,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>564</v>
       </c>
@@ -7615,7 +7617,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>565</v>
       </c>
@@ -7623,7 +7625,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>566</v>
       </c>
@@ -7631,7 +7633,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>567</v>
       </c>
@@ -7639,7 +7641,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>568</v>
       </c>
@@ -7647,7 +7649,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>569</v>
       </c>
@@ -7655,7 +7657,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>570</v>
       </c>
@@ -7663,7 +7665,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>571</v>
       </c>
@@ -7671,7 +7673,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>572</v>
       </c>
@@ -7679,7 +7681,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>573</v>
       </c>
@@ -7687,7 +7689,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>574</v>
       </c>
@@ -7695,7 +7697,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>575</v>
       </c>
@@ -7703,7 +7705,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>576</v>
       </c>
@@ -7711,7 +7713,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>577</v>
       </c>
@@ -7719,7 +7721,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>578</v>
       </c>
@@ -7727,7 +7729,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>579</v>
       </c>
@@ -7735,7 +7737,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>580</v>
       </c>
@@ -7743,7 +7745,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>581</v>
       </c>
@@ -7751,7 +7753,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>582</v>
       </c>
@@ -7759,7 +7761,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>583</v>
       </c>
@@ -7767,7 +7769,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>584</v>
       </c>
@@ -7775,7 +7777,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>585</v>
       </c>
@@ -7783,7 +7785,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>586</v>
       </c>
@@ -7791,7 +7793,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>587</v>
       </c>
@@ -7799,7 +7801,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>588</v>
       </c>
@@ -7807,7 +7809,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>589</v>
       </c>
@@ -7815,7 +7817,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>590</v>
       </c>
@@ -7823,7 +7825,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>591</v>
       </c>
@@ -7831,7 +7833,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>592</v>
       </c>
@@ -7839,7 +7841,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>593</v>
       </c>
@@ -7847,7 +7849,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>594</v>
       </c>
@@ -7855,7 +7857,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>595</v>
       </c>
@@ -7863,7 +7865,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>596</v>
       </c>
@@ -7871,7 +7873,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>597</v>
       </c>
@@ -7879,7 +7881,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>598</v>
       </c>
@@ -7887,7 +7889,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>599</v>
       </c>
@@ -7895,7 +7897,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>600</v>
       </c>
@@ -7903,7 +7905,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>601</v>
       </c>
@@ -7911,7 +7913,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>602</v>
       </c>
@@ -7919,7 +7921,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>603</v>
       </c>
@@ -7927,7 +7929,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>604</v>
       </c>
@@ -7935,7 +7937,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>605</v>
       </c>
@@ -7943,7 +7945,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>606</v>
       </c>
@@ -7951,7 +7953,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>607</v>
       </c>
@@ -7959,7 +7961,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>608</v>
       </c>
@@ -7967,7 +7969,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>609</v>
       </c>
@@ -7975,7 +7977,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>610</v>
       </c>
@@ -7983,7 +7985,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>611</v>
       </c>
@@ -7991,7 +7993,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>612</v>
       </c>
@@ -7999,7 +8001,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>613</v>
       </c>
@@ -8007,7 +8009,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>614</v>
       </c>
@@ -8015,7 +8017,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>615</v>
       </c>
@@ -8023,7 +8025,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>616</v>
       </c>
@@ -8031,7 +8033,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>617</v>
       </c>
@@ -8039,7 +8041,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>618</v>
       </c>
@@ -8047,7 +8049,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>619</v>
       </c>
@@ -8055,7 +8057,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>620</v>
       </c>
@@ -8063,7 +8065,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>621</v>
       </c>
@@ -8071,7 +8073,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>622</v>
       </c>
@@ -8079,7 +8081,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>623</v>
       </c>
@@ -8087,7 +8089,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>624</v>
       </c>
@@ -8095,7 +8097,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>625</v>
       </c>
@@ -8103,7 +8105,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>626</v>
       </c>
@@ -8111,7 +8113,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>627</v>
       </c>
@@ -8119,7 +8121,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>628</v>
       </c>
@@ -8127,7 +8129,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>629</v>
       </c>
@@ -8135,7 +8137,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>630</v>
       </c>
@@ -8143,7 +8145,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>631</v>
       </c>
@@ -8151,7 +8153,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>632</v>
       </c>
@@ -8159,7 +8161,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>633</v>
       </c>
@@ -8167,7 +8169,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>634</v>
       </c>
@@ -8175,7 +8177,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>635</v>
       </c>
@@ -8183,7 +8185,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>636</v>
       </c>
@@ -8191,7 +8193,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>637</v>
       </c>
@@ -8199,7 +8201,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>639</v>
       </c>
@@ -8207,7 +8209,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>641</v>
       </c>
@@ -8215,7 +8217,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>643</v>
       </c>
@@ -8223,7 +8225,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>644</v>
       </c>
@@ -8231,7 +8233,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>646</v>
       </c>
@@ -8239,7 +8241,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>648</v>
       </c>
@@ -8247,7 +8249,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>650</v>
       </c>
@@ -8255,7 +8257,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>652</v>
       </c>
@@ -8263,7 +8265,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>654</v>
       </c>
@@ -8271,7 +8273,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>656</v>
       </c>
@@ -8279,7 +8281,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>658</v>
       </c>
@@ -8287,7 +8289,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>660</v>
       </c>
@@ -8295,7 +8297,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>662</v>
       </c>
@@ -8303,7 +8305,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>664</v>
       </c>
@@ -8311,7 +8313,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>666</v>
       </c>
@@ -8319,7 +8321,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>668</v>
       </c>
@@ -8327,7 +8329,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>670</v>
       </c>
@@ -8335,7 +8337,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>672</v>
       </c>
@@ -8343,7 +8345,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>674</v>
       </c>
@@ -8351,7 +8353,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>676</v>
       </c>
@@ -8359,7 +8361,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>678</v>
       </c>
@@ -8367,7 +8369,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>680</v>
       </c>
@@ -8375,7 +8377,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>682</v>
       </c>
@@ -8383,7 +8385,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>684</v>
       </c>
@@ -8391,7 +8393,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>686</v>
       </c>
@@ -8399,7 +8401,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>688</v>
       </c>
@@ -8407,7 +8409,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>690</v>
       </c>
@@ -8415,7 +8417,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>692</v>
       </c>
@@ -8423,7 +8425,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>694</v>
       </c>
@@ -8431,7 +8433,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>696</v>
       </c>
@@ -8439,7 +8441,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>698</v>
       </c>
@@ -8447,7 +8449,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>700</v>
       </c>
@@ -8455,7 +8457,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>702</v>
       </c>
@@ -8463,7 +8465,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>704</v>
       </c>
@@ -8471,7 +8473,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>706</v>
       </c>
@@ -8479,7 +8481,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>708</v>
       </c>
@@ -8487,7 +8489,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>710</v>
       </c>
@@ -8495,7 +8497,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>712</v>
       </c>
@@ -8503,7 +8505,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>714</v>
       </c>
@@ -8511,7 +8513,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>716</v>
       </c>
@@ -8519,7 +8521,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>718</v>
       </c>
@@ -8527,7 +8529,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>720</v>
       </c>
@@ -8535,7 +8537,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>722</v>
       </c>
@@ -8543,7 +8545,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>724</v>
       </c>
@@ -8551,7 +8553,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>726</v>
       </c>
@@ -8559,7 +8561,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>728</v>
       </c>
@@ -8567,7 +8569,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>730</v>
       </c>
@@ -8575,7 +8577,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>732</v>
       </c>
@@ -8583,7 +8585,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>734</v>
       </c>
@@ -8591,7 +8593,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>736</v>
       </c>
@@ -8599,7 +8601,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>738</v>
       </c>
@@ -8607,7 +8609,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>740</v>
       </c>
@@ -8615,7 +8617,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>742</v>
       </c>
@@ -8623,7 +8625,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>744</v>
       </c>
@@ -8631,7 +8633,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>746</v>
       </c>
@@ -8639,7 +8641,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>748</v>
       </c>
@@ -8647,7 +8649,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>750</v>
       </c>
@@ -8655,7 +8657,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>752</v>
       </c>
@@ -8663,7 +8665,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>754</v>
       </c>
@@ -8671,7 +8673,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>755</v>
       </c>
@@ -8679,7 +8681,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>756</v>
       </c>
@@ -8687,7 +8689,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>757</v>
       </c>
@@ -8695,7 +8697,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>758</v>
       </c>
@@ -8703,7 +8705,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>759</v>
       </c>
@@ -8711,7 +8713,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>760</v>
       </c>
@@ -8719,7 +8721,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>761</v>
       </c>
@@ -8727,7 +8729,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>762</v>
       </c>
@@ -8735,7 +8737,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>763</v>
       </c>
@@ -8743,7 +8745,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>764</v>
       </c>
@@ -8751,7 +8753,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>765</v>
       </c>
@@ -8759,7 +8761,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>766</v>
       </c>
@@ -8767,7 +8769,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>767</v>
       </c>
@@ -8775,7 +8777,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>768</v>
       </c>
@@ -8783,7 +8785,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>769</v>
       </c>
@@ -8791,7 +8793,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>770</v>
       </c>
@@ -8799,7 +8801,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>771</v>
       </c>
@@ -8807,7 +8809,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>772</v>
       </c>
@@ -8815,7 +8817,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>773</v>
       </c>
@@ -8823,7 +8825,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>774</v>
       </c>
@@ -8831,7 +8833,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>775</v>
       </c>
@@ -8839,7 +8841,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>776</v>
       </c>
@@ -8847,7 +8849,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>777</v>
       </c>
@@ -8855,7 +8857,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>778</v>
       </c>
@@ -8863,7 +8865,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>779</v>
       </c>
@@ -8871,7 +8873,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>780</v>
       </c>
@@ -8879,7 +8881,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>781</v>
       </c>
@@ -8887,7 +8889,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>782</v>
       </c>
@@ -8895,7 +8897,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>783</v>
       </c>
@@ -8903,7 +8905,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>784</v>
       </c>
@@ -8911,7 +8913,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>785</v>
       </c>
@@ -8919,7 +8921,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>786</v>
       </c>
@@ -8927,7 +8929,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>787</v>
       </c>
@@ -8935,7 +8937,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>788</v>
       </c>
@@ -8943,7 +8945,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>789</v>
       </c>
@@ -8951,7 +8953,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>790</v>
       </c>
@@ -8959,7 +8961,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>791</v>
       </c>
@@ -8967,7 +8969,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>792</v>
       </c>
@@ -8975,7 +8977,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>793</v>
       </c>
@@ -8983,7 +8985,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>794</v>
       </c>
@@ -8991,7 +8993,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>795</v>
       </c>
@@ -8999,7 +9001,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>796</v>
       </c>
@@ -9007,7 +9009,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>797</v>
       </c>
@@ -9015,7 +9017,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>798</v>
       </c>
@@ -9023,7 +9025,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>799</v>
       </c>
@@ -9031,7 +9033,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>800</v>
       </c>
@@ -9039,7 +9041,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>801</v>
       </c>
@@ -9047,7 +9049,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>802</v>
       </c>
@@ -9055,7 +9057,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>803</v>
       </c>
@@ -9063,7 +9065,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>804</v>
       </c>
@@ -9071,7 +9073,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>805</v>
       </c>
@@ -9079,7 +9081,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>806</v>
       </c>
@@ -9087,7 +9089,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>807</v>
       </c>
@@ -9095,7 +9097,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>808</v>
       </c>
@@ -9103,7 +9105,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>809</v>
       </c>
@@ -9111,7 +9113,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>810</v>
       </c>
@@ -9119,7 +9121,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>811</v>
       </c>
@@ -9127,7 +9129,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>812</v>
       </c>
@@ -9135,7 +9137,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>813</v>
       </c>
@@ -9143,7 +9145,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>814</v>
       </c>
@@ -9151,7 +9153,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>815</v>
       </c>
@@ -9159,7 +9161,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>816</v>
       </c>
@@ -9167,7 +9169,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>817</v>
       </c>
@@ -9175,7 +9177,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>818</v>
       </c>
@@ -9183,7 +9185,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>819</v>
       </c>
@@ -9191,7 +9193,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>820</v>
       </c>
@@ -9199,7 +9201,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>821</v>
       </c>
@@ -9207,7 +9209,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>822</v>
       </c>
@@ -9215,7 +9217,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>823</v>
       </c>
@@ -9223,7 +9225,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>824</v>
       </c>
@@ -9231,7 +9233,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>825</v>
       </c>
@@ -9239,7 +9241,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>826</v>
       </c>
@@ -9247,7 +9249,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>827</v>
       </c>
@@ -9255,7 +9257,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>828</v>
       </c>
@@ -9263,7 +9265,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>829</v>
       </c>
@@ -9271,7 +9273,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>830</v>
       </c>
@@ -9279,7 +9281,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>831</v>
       </c>
@@ -9287,7 +9289,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>832</v>
       </c>
@@ -9295,7 +9297,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>833</v>
       </c>
@@ -9303,7 +9305,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>834</v>
       </c>
@@ -9311,7 +9313,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>835</v>
       </c>
@@ -9319,7 +9321,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>836</v>
       </c>
@@ -9327,7 +9329,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>837</v>
       </c>
@@ -9335,7 +9337,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>838</v>
       </c>
@@ -9343,7 +9345,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>839</v>
       </c>
@@ -9351,7 +9353,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>840</v>
       </c>
@@ -9359,7 +9361,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>841</v>
       </c>
@@ -9367,7 +9369,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>842</v>
       </c>
@@ -9375,7 +9377,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>843</v>
       </c>
@@ -9383,7 +9385,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>844</v>
       </c>
@@ -9391,7 +9393,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>845</v>
       </c>
@@ -9399,7 +9401,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>846</v>
       </c>
@@ -9407,7 +9409,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>847</v>
       </c>
@@ -9415,7 +9417,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>848</v>
       </c>
@@ -9423,7 +9425,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>849</v>
       </c>
@@ -9431,7 +9433,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>850</v>
       </c>
@@ -9439,7 +9441,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>851</v>
       </c>
@@ -9447,7 +9449,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>852</v>
       </c>
@@ -9455,7 +9457,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>853</v>
       </c>
@@ -9463,7 +9465,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>854</v>
       </c>
@@ -9471,7 +9473,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>855</v>
       </c>
@@ -9479,7 +9481,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>856</v>
       </c>
@@ -9487,7 +9489,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>857</v>
       </c>
@@ -9495,7 +9497,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>858</v>
       </c>
@@ -9503,7 +9505,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>859</v>
       </c>
@@ -9511,7 +9513,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>860</v>
       </c>
@@ -9519,7 +9521,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>861</v>
       </c>
@@ -9527,7 +9529,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>862</v>
       </c>
@@ -9535,7 +9537,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>863</v>
       </c>
@@ -9543,7 +9545,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>864</v>
       </c>
@@ -9551,7 +9553,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>865</v>
       </c>
@@ -9559,7 +9561,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>866</v>
       </c>
@@ -9567,7 +9569,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>867</v>
       </c>
@@ -9575,7 +9577,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>868</v>
       </c>
@@ -9583,7 +9585,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>869</v>
       </c>
@@ -9591,7 +9593,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>870</v>
       </c>
@@ -9599,7 +9601,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>871</v>
       </c>
@@ -9607,7 +9609,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>872</v>
       </c>
@@ -9615,7 +9617,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>873</v>
       </c>
@@ -9623,7 +9625,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>874</v>
       </c>
@@ -9631,7 +9633,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>875</v>
       </c>
@@ -9639,7 +9641,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>876</v>
       </c>
@@ -9647,7 +9649,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>877</v>
       </c>
@@ -9655,7 +9657,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>878</v>
       </c>
@@ -9663,7 +9665,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>879</v>
       </c>
@@ -9671,7 +9673,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>880</v>
       </c>
@@ -9679,7 +9681,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>881</v>
       </c>
@@ -9687,7 +9689,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>882</v>
       </c>
@@ -9695,7 +9697,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>883</v>
       </c>
@@ -9703,7 +9705,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>884</v>
       </c>
@@ -9711,7 +9713,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>885</v>
       </c>
@@ -9719,7 +9721,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>886</v>
       </c>
@@ -9727,7 +9729,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>887</v>
       </c>
@@ -9735,7 +9737,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>888</v>
       </c>
@@ -9743,7 +9745,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>889</v>
       </c>
@@ -9751,7 +9753,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>890</v>
       </c>
@@ -9759,7 +9761,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>891</v>
       </c>
@@ -9767,7 +9769,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>892</v>
       </c>
@@ -9775,7 +9777,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>893</v>
       </c>
@@ -9783,7 +9785,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>894</v>
       </c>
@@ -9791,7 +9793,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>895</v>
       </c>
@@ -9799,7 +9801,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>896</v>
       </c>
@@ -9807,7 +9809,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>897</v>
       </c>
@@ -9815,7 +9817,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>898</v>
       </c>
@@ -9823,7 +9825,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>899</v>
       </c>
@@ -9831,7 +9833,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>900</v>
       </c>
@@ -9839,7 +9841,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>901</v>
       </c>
@@ -9847,7 +9849,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>902</v>
       </c>
@@ -9855,7 +9857,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>903</v>
       </c>
@@ -9863,7 +9865,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>904</v>
       </c>
@@ -9871,7 +9873,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>905</v>
       </c>
@@ -9879,7 +9881,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>906</v>
       </c>
@@ -9887,7 +9889,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>907</v>
       </c>
@@ -9895,7 +9897,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>908</v>
       </c>
@@ -9903,7 +9905,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>909</v>
       </c>
@@ -9911,7 +9913,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>910</v>
       </c>
@@ -9919,7 +9921,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>911</v>
       </c>
@@ -9927,7 +9929,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>912</v>
       </c>
@@ -9935,7 +9937,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>913</v>
       </c>
@@ -9943,7 +9945,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>914</v>
       </c>
@@ -9951,7 +9953,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>915</v>
       </c>
@@ -9959,7 +9961,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>916</v>
       </c>
@@ -9967,7 +9969,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>917</v>
       </c>
@@ -9975,7 +9977,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>918</v>
       </c>
@@ -9983,7 +9985,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>919</v>
       </c>
@@ -9991,7 +9993,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>920</v>
       </c>
@@ -9999,7 +10001,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>921</v>
       </c>
@@ -10007,7 +10009,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>922</v>
       </c>
@@ -10015,7 +10017,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>923</v>
       </c>
@@ -10023,7 +10025,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>924</v>
       </c>
@@ -10031,7 +10033,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>925</v>
       </c>
@@ -10039,7 +10041,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>926</v>
       </c>
@@ -10047,7 +10049,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>927</v>
       </c>
@@ -10055,7 +10057,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>928</v>
       </c>
@@ -10063,7 +10065,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>929</v>
       </c>
@@ -10071,7 +10073,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>930</v>
       </c>
@@ -10079,7 +10081,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>931</v>
       </c>
@@ -10087,7 +10089,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>932</v>
       </c>
@@ -10095,7 +10097,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>933</v>
       </c>
@@ -10103,7 +10105,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>934</v>
       </c>
@@ -10111,7 +10113,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>935</v>
       </c>
@@ -10119,7 +10121,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>936</v>
       </c>
@@ -10127,7 +10129,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>937</v>
       </c>
@@ -10135,7 +10137,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>938</v>
       </c>
@@ -10143,7 +10145,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>939</v>
       </c>
@@ -10151,7 +10153,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>940</v>
       </c>
@@ -10159,7 +10161,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>941</v>
       </c>
@@ -10167,7 +10169,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>942</v>
       </c>
@@ -10175,7 +10177,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>943</v>
       </c>
@@ -10183,7 +10185,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>944</v>
       </c>
@@ -10191,7 +10193,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>945</v>
       </c>
@@ -10199,7 +10201,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>946</v>
       </c>
@@ -10207,7 +10209,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>947</v>
       </c>
@@ -10215,7 +10217,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>948</v>
       </c>
@@ -10223,7 +10225,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>949</v>
       </c>
@@ -10231,7 +10233,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>950</v>
       </c>
@@ -10239,7 +10241,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>951</v>
       </c>
@@ -10247,7 +10249,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>952</v>
       </c>
@@ -10255,7 +10257,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>953</v>
       </c>
@@ -10263,7 +10265,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>954</v>
       </c>
@@ -10271,7 +10273,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>955</v>
       </c>
@@ -10279,7 +10281,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>956</v>
       </c>
@@ -10287,7 +10289,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>957</v>
       </c>
@@ -10295,7 +10297,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>958</v>
       </c>
@@ -10303,7 +10305,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>959</v>
       </c>
@@ -10311,7 +10313,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>960</v>
       </c>
@@ -10319,7 +10321,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>961</v>
       </c>
@@ -10327,7 +10329,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>962</v>
       </c>
@@ -10335,7 +10337,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>963</v>
       </c>
@@ -10343,7 +10345,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>964</v>
       </c>
@@ -10351,7 +10353,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>965</v>
       </c>
@@ -10359,7 +10361,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>966</v>
       </c>
@@ -10367,7 +10369,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>967</v>
       </c>
@@ -10375,7 +10377,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>968</v>
       </c>
@@ -10383,7 +10385,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>969</v>
       </c>
@@ -10391,7 +10393,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>970</v>
       </c>
@@ -10399,7 +10401,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>971</v>
       </c>
@@ -10407,7 +10409,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>972</v>
       </c>
@@ -10415,7 +10417,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>973</v>
       </c>
@@ -10423,7 +10425,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>974</v>
       </c>
@@ -10431,7 +10433,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>976</v>
       </c>
@@ -10439,7 +10441,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>978</v>
       </c>
@@ -10447,7 +10449,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>980</v>
       </c>
@@ -10455,7 +10457,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>982</v>
       </c>
@@ -10463,7 +10465,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>984</v>
       </c>
@@ -10471,7 +10473,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>986</v>
       </c>
@@ -10479,7 +10481,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>987</v>
       </c>
@@ -10487,7 +10489,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>988</v>
       </c>
@@ -10495,7 +10497,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>989</v>
       </c>
@@ -10503,7 +10505,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>990</v>
       </c>
@@ -10511,7 +10513,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>991</v>
       </c>
@@ -10519,7 +10521,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>992</v>
       </c>
@@ -10527,7 +10529,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>993</v>
       </c>
@@ -10535,7 +10537,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>994</v>
       </c>
@@ -10543,7 +10545,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>995</v>
       </c>
@@ -10551,7 +10553,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>997</v>
       </c>
@@ -10559,7 +10561,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>998</v>
       </c>
@@ -10567,7 +10569,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>1000</v>
       </c>
@@ -10575,7 +10577,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>1002</v>
       </c>
@@ -10583,7 +10585,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>1004</v>
       </c>
@@ -10591,7 +10593,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>1006</v>
       </c>
@@ -10599,7 +10601,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>1008</v>
       </c>
@@ -10607,7 +10609,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>1010</v>
       </c>
@@ -10615,7 +10617,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>1012</v>
       </c>
@@ -10623,7 +10625,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>1014</v>
       </c>
@@ -10631,7 +10633,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>1016</v>
       </c>
@@ -10639,7 +10641,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>1018</v>
       </c>
@@ -10647,7 +10649,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>1020</v>
       </c>
@@ -10655,7 +10657,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>1022</v>
       </c>
@@ -10663,7 +10665,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>1024</v>
       </c>
@@ -10671,7 +10673,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>1026</v>
       </c>
@@ -10679,7 +10681,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>1028</v>
       </c>
@@ -10687,7 +10689,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>1030</v>
       </c>
@@ -10695,7 +10697,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>1032</v>
       </c>
@@ -10703,7 +10705,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>1034</v>
       </c>
@@ -10711,7 +10713,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>1036</v>
       </c>
@@ -10719,7 +10721,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>1038</v>
       </c>
@@ -10727,7 +10729,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>1039</v>
       </c>
@@ -10735,7 +10737,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>1040</v>
       </c>
@@ -10743,7 +10745,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>1041</v>
       </c>
@@ -10751,7 +10753,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>1042</v>
       </c>
@@ -10759,7 +10761,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1044</v>
       </c>
@@ -10767,7 +10769,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1045</v>
       </c>
@@ -10775,7 +10777,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>1046</v>
       </c>
@@ -10783,7 +10785,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>1047</v>
       </c>
@@ -10791,7 +10793,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>1048</v>
       </c>
@@ -10799,7 +10801,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>1049</v>
       </c>
@@ -10807,7 +10809,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>1050</v>
       </c>
@@ -10815,7 +10817,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>1051</v>
       </c>
@@ -10823,7 +10825,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1053</v>
       </c>
@@ -10831,7 +10833,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>1054</v>
       </c>
@@ -10839,7 +10841,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>1055</v>
       </c>
@@ -10847,7 +10849,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>1056</v>
       </c>
@@ -10855,7 +10857,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>1057</v>
       </c>
@@ -10863,7 +10865,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>1058</v>
       </c>
@@ -10871,7 +10873,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>1059</v>
       </c>
@@ -10879,7 +10881,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>1060</v>
       </c>
@@ -10887,7 +10889,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>1061</v>
       </c>
@@ -10895,7 +10897,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>1062</v>
       </c>
@@ -10903,7 +10905,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>1063</v>
       </c>
@@ -10911,7 +10913,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>1065</v>
       </c>
@@ -10919,7 +10921,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>1066</v>
       </c>
@@ -10927,7 +10929,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>1067</v>
       </c>
@@ -10935,7 +10937,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>1068</v>
       </c>
@@ -10943,7 +10945,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>1069</v>
       </c>
@@ -10951,7 +10953,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>1070</v>
       </c>
@@ -10959,7 +10961,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>1071</v>
       </c>
@@ -10967,7 +10969,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1072</v>
       </c>
@@ -10975,7 +10977,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1073</v>
       </c>
@@ -10983,7 +10985,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>1074</v>
       </c>
@@ -10991,7 +10993,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>1075</v>
       </c>
@@ -10999,7 +11001,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>1076</v>
       </c>
@@ -11007,7 +11009,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1077</v>
       </c>
@@ -11015,7 +11017,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>1078</v>
       </c>
@@ -11023,7 +11025,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>1079</v>
       </c>
@@ -11031,7 +11033,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>1080</v>
       </c>
@@ -11039,7 +11041,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>1081</v>
       </c>
@@ -11047,7 +11049,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>1082</v>
       </c>
@@ -11055,7 +11057,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>1083</v>
       </c>
@@ -11063,7 +11065,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>1084</v>
       </c>
@@ -11071,7 +11073,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>1085</v>
       </c>
@@ -11079,7 +11081,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>1086</v>
       </c>
@@ -11087,7 +11089,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>1087</v>
       </c>
@@ -11095,7 +11097,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1088</v>
       </c>
@@ -11103,7 +11105,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>1089</v>
       </c>
@@ -11111,7 +11113,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>1090</v>
       </c>
@@ -11119,7 +11121,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>1091</v>
       </c>
@@ -11127,7 +11129,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>1092</v>
       </c>
@@ -11135,7 +11137,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>1093</v>
       </c>
@@ -11143,7 +11145,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1094</v>
       </c>
@@ -11151,7 +11153,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>1095</v>
       </c>
@@ -11159,7 +11161,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1096</v>
       </c>
@@ -11167,7 +11169,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>1097</v>
       </c>
@@ -11175,7 +11177,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>1098</v>
       </c>
@@ -11183,7 +11185,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>1099</v>
       </c>
@@ -11191,7 +11193,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>1100</v>
       </c>
@@ -11199,7 +11201,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>1101</v>
       </c>
@@ -11207,7 +11209,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>1102</v>
       </c>
@@ -11215,7 +11217,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>1103</v>
       </c>
@@ -11223,7 +11225,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>1104</v>
       </c>
@@ -11231,7 +11233,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>1105</v>
       </c>
@@ -11239,7 +11241,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>1107</v>
       </c>
@@ -11247,7 +11249,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>1108</v>
       </c>
@@ -11255,7 +11257,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>1109</v>
       </c>
@@ -11263,7 +11265,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>1110</v>
       </c>
@@ -11271,7 +11273,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>1111</v>
       </c>
@@ -11279,7 +11281,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>1112</v>
       </c>
@@ -11287,7 +11289,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>1113</v>
       </c>
@@ -11295,7 +11297,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>1114</v>
       </c>
@@ -11303,7 +11305,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>1115</v>
       </c>
@@ -11311,7 +11313,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>1116</v>
       </c>
@@ -11319,7 +11321,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>1117</v>
       </c>
@@ -11327,7 +11329,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>1118</v>
       </c>
@@ -11335,7 +11337,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>1119</v>
       </c>
@@ -11343,7 +11345,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>1120</v>
       </c>
@@ -11351,7 +11353,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>1121</v>
       </c>
@@ -11359,7 +11361,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>1122</v>
       </c>
@@ -11367,7 +11369,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>1124</v>
       </c>
@@ -11375,7 +11377,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>1126</v>
       </c>
@@ -11383,7 +11385,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>1128</v>
       </c>
@@ -11391,7 +11393,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>1130</v>
       </c>
@@ -11399,7 +11401,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>1132</v>
       </c>
@@ -11407,7 +11409,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>1134</v>
       </c>
@@ -11415,7 +11417,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>1136</v>
       </c>
@@ -11423,7 +11425,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>1138</v>
       </c>
@@ -11431,7 +11433,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>1139</v>
       </c>
@@ -11439,7 +11441,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>1140</v>
       </c>
@@ -11447,7 +11449,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>1141</v>
       </c>
@@ -11455,7 +11457,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>1142</v>
       </c>
@@ -11463,7 +11465,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>1143</v>
       </c>
@@ -11471,7 +11473,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>1144</v>
       </c>
@@ -11479,7 +11481,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>1145</v>
       </c>
@@ -11487,7 +11489,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>1147</v>
       </c>
@@ -11495,7 +11497,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>1148</v>
       </c>
@@ -11503,7 +11505,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>1150</v>
       </c>
@@ -11511,7 +11513,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>1151</v>
       </c>
@@ -11519,7 +11521,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>1152</v>
       </c>
@@ -11527,7 +11529,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>1154</v>
       </c>
@@ -11535,7 +11537,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>1156</v>
       </c>
@@ -11543,7 +11545,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>1158</v>
       </c>
@@ -11551,7 +11553,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>1160</v>
       </c>
@@ -11559,7 +11561,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>1162</v>
       </c>
@@ -11567,7 +11569,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>1164</v>
       </c>
@@ -11575,7 +11577,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>1166</v>
       </c>
@@ -11583,7 +11585,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>1168</v>
       </c>
@@ -11591,7 +11593,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>1170</v>
       </c>
@@ -11599,7 +11601,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>1172</v>
       </c>
@@ -11607,7 +11609,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>1173</v>
       </c>
@@ -11615,7 +11617,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>1174</v>
       </c>
@@ -11623,7 +11625,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>1175</v>
       </c>
@@ -11631,7 +11633,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>1176</v>
       </c>
@@ -11639,7 +11641,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>1177</v>
       </c>
@@ -11647,7 +11649,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>1178</v>
       </c>
@@ -11655,7 +11657,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>1179</v>
       </c>
@@ -11663,7 +11665,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>1180</v>
       </c>
@@ -11671,7 +11673,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>1181</v>
       </c>
@@ -11679,7 +11681,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>1182</v>
       </c>
@@ -11687,7 +11689,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>1183</v>
       </c>
@@ -11695,7 +11697,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>1184</v>
       </c>
@@ -11703,7 +11705,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>1185</v>
       </c>
@@ -11711,7 +11713,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>1186</v>
       </c>
@@ -11719,7 +11721,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>1187</v>
       </c>
@@ -11727,7 +11729,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>1188</v>
       </c>
@@ -11735,7 +11737,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>1189</v>
       </c>
@@ -11743,7 +11745,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>1190</v>
       </c>
@@ -11751,7 +11753,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>1191</v>
       </c>
@@ -11759,7 +11761,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>1192</v>
       </c>
@@ -11767,7 +11769,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>1193</v>
       </c>
@@ -11775,7 +11777,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>1194</v>
       </c>
@@ -11783,7 +11785,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>1195</v>
       </c>
@@ -11791,7 +11793,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>1196</v>
       </c>
@@ -11799,7 +11801,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>1197</v>
       </c>
@@ -11807,7 +11809,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>1198</v>
       </c>
@@ -11815,7 +11817,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>1199</v>
       </c>
@@ -11823,7 +11825,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>1200</v>
       </c>
@@ -11831,7 +11833,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>1201</v>
       </c>
@@ -11839,7 +11841,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>1202</v>
       </c>
@@ -11847,7 +11849,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>1203</v>
       </c>
@@ -11855,7 +11857,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>1204</v>
       </c>
@@ -11863,7 +11865,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>1205</v>
       </c>
@@ -11871,7 +11873,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>1206</v>
       </c>
@@ -11879,7 +11881,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>1207</v>
       </c>
@@ -11887,7 +11889,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>1208</v>
       </c>
@@ -11895,7 +11897,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>1209</v>
       </c>
@@ -11903,7 +11905,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>1210</v>
       </c>
@@ -11911,7 +11913,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>1211</v>
       </c>
@@ -11919,7 +11921,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>1212</v>
       </c>
@@ -11927,7 +11929,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>1213</v>
       </c>
@@ -11935,7 +11937,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>1214</v>
       </c>
@@ -11943,7 +11945,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>1215</v>
       </c>
@@ -11951,7 +11953,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>1216</v>
       </c>
@@ -11959,7 +11961,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>1217</v>
       </c>
@@ -11967,7 +11969,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>1218</v>
       </c>
@@ -11975,7 +11977,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>1219</v>
       </c>
@@ -11983,7 +11985,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>1220</v>
       </c>
@@ -11991,7 +11993,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>1221</v>
       </c>
@@ -11999,7 +12001,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>1222</v>
       </c>
@@ -12007,7 +12009,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>1223</v>
       </c>
@@ -12015,7 +12017,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>1224</v>
       </c>
@@ -12023,7 +12025,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>1226</v>
       </c>
@@ -12031,7 +12033,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>1228</v>
       </c>
@@ -12039,7 +12041,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>1230</v>
       </c>
@@ -12047,7 +12049,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>1232</v>
       </c>
@@ -12055,7 +12057,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>1234</v>
       </c>
@@ -12063,7 +12065,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>1236</v>
       </c>
@@ -12071,7 +12073,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>1238</v>
       </c>
@@ -12079,7 +12081,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>1240</v>
       </c>
@@ -12087,7 +12089,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>1241</v>
       </c>
@@ -12095,7 +12097,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>1242</v>
       </c>
@@ -12103,7 +12105,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>1243</v>
       </c>
@@ -12111,7 +12113,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>1244</v>
       </c>
@@ -12119,7 +12121,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>1246</v>
       </c>
@@ -12127,7 +12129,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>1247</v>
       </c>
@@ -12135,7 +12137,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>1249</v>
       </c>
@@ -12143,7 +12145,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>1250</v>
       </c>
@@ -12151,7 +12153,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>1251</v>
       </c>
@@ -12159,7 +12161,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>1253</v>
       </c>
@@ -12167,7 +12169,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>1255</v>
       </c>
@@ -12175,7 +12177,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>1257</v>
       </c>
@@ -12183,7 +12185,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>1258</v>
       </c>
@@ -12191,7 +12193,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>1259</v>
       </c>
@@ -12199,7 +12201,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>1260</v>
       </c>
@@ -12207,7 +12209,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>1261</v>
       </c>
@@ -12215,7 +12217,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>1262</v>
       </c>
@@ -12223,7 +12225,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>1263</v>
       </c>
@@ -12231,7 +12233,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>1264</v>
       </c>
@@ -12239,7 +12241,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>1265</v>
       </c>
@@ -12247,7 +12249,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>1266</v>
       </c>
@@ -12255,7 +12257,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>1267</v>
       </c>
@@ -12263,7 +12265,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>1268</v>
       </c>
@@ -12271,7 +12273,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>1269</v>
       </c>
@@ -12279,7 +12281,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>1270</v>
       </c>
@@ -12287,7 +12289,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>1271</v>
       </c>
@@ -12295,7 +12297,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>1272</v>
       </c>
@@ -12303,7 +12305,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>1273</v>
       </c>
@@ -12311,7 +12313,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>1274</v>
       </c>
@@ -12319,7 +12321,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>1275</v>
       </c>
@@ -12327,7 +12329,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>1276</v>
       </c>
@@ -12335,7 +12337,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>1277</v>
       </c>
@@ -12343,7 +12345,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>1278</v>
       </c>
@@ -12351,7 +12353,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>1279</v>
       </c>
@@ -12359,7 +12361,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>1280</v>
       </c>
@@ -12367,7 +12369,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>1281</v>
       </c>
@@ -12375,7 +12377,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>1283</v>
       </c>
@@ -12383,7 +12385,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>1285</v>
       </c>
@@ -12391,7 +12393,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>1287</v>
       </c>
@@ -12399,7 +12401,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>1289</v>
       </c>
@@ -12407,7 +12409,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>1291</v>
       </c>
@@ -12415,7 +12417,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>1293</v>
       </c>
@@ -12423,7 +12425,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>1295</v>
       </c>
@@ -12431,7 +12433,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>1297</v>
       </c>
@@ -12439,7 +12441,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>1299</v>
       </c>
@@ -12447,7 +12449,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>1301</v>
       </c>
@@ -12455,7 +12457,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>1303</v>
       </c>
@@ -12463,7 +12465,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>1305</v>
       </c>
@@ -12471,7 +12473,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>1307</v>
       </c>
@@ -12479,7 +12481,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>1309</v>
       </c>
@@ -12487,7 +12489,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>1311</v>
       </c>
@@ -12495,7 +12497,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>1313</v>
       </c>
@@ -12503,7 +12505,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>1315</v>
       </c>
@@ -12511,7 +12513,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>1317</v>
       </c>
@@ -12519,7 +12521,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>1319</v>
       </c>
@@ -12527,7 +12529,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>1321</v>
       </c>
@@ -12535,7 +12537,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>1323</v>
       </c>
@@ -12543,7 +12545,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>1325</v>
       </c>
@@ -12551,7 +12553,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>1327</v>
       </c>
@@ -12559,7 +12561,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>1329</v>
       </c>
@@ -12567,7 +12569,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>1331</v>
       </c>
@@ -12575,7 +12577,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>1333</v>
       </c>
@@ -12583,7 +12585,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>1335</v>
       </c>
@@ -12591,7 +12593,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>1337</v>
       </c>
@@ -12599,7 +12601,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
         <v>1339</v>
       </c>
@@ -12607,7 +12609,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>1340</v>
       </c>
@@ -12615,7 +12617,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>1341</v>
       </c>
@@ -12623,7 +12625,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
         <v>1342</v>
       </c>
@@ -12631,7 +12633,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>1343</v>
       </c>
@@ -12639,7 +12641,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
         <v>1344</v>
       </c>
@@ -12648,6 +12650,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A963" xr:uid="{CB82BDAF-638F-492F-AA5C-88C3F27D6AAA}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="tHFA_B021"/>
+        <filter val="tHFA_B022"/>
+        <filter val="tHFA_B023"/>
+        <filter val="tHFA_B024"/>
+        <filter val="tHFA_B035"/>
+        <filter val="tHFA_B045"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tool/columns.xlsx
+++ b/Tool/columns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d4a9fd65a6bad53/Seun/3. Career and business/3. IQVIA-Asiwaju-PC/Analysis/tHFA/Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{E1511F1F-D8A7-4D42-928E-E9E384E9A26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DA087F2-8718-46E5-A958-68376E006CE1}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{E1511F1F-D8A7-4D42-928E-E9E384E9A26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9711551-DA7F-42DA-B317-21AD278905E6}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="0" windowWidth="11460" windowHeight="11520" xr2:uid="{92F174B8-707D-4AB0-8456-4EDDF9CBD9F1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{92F174B8-707D-4AB0-8456-4EDDF9CBD9F1}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -4935,17 +4935,17 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:B963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B169" sqref="B169"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875"/>
+    <col min="1" max="1" width="9.453125" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>90</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>92</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>98</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>100</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>104</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>122</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>124</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>126</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>128</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>130</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>132</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>134</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>140</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>142</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>144</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>146</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>148</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>149</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>151</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>152</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>154</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>157</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>158</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>160</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>161</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>163</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>164</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>166</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>167</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>169</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>170</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>172</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>173</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>175</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>176</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>178</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>179</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>181</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>182</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>184</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>185</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>187</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>188</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>190</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>191</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>193</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>194</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>196</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>197</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>199</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>200</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>202</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>203</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>205</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>206</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>208</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>209</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>211</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>212</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>214</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>215</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>217</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>218</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>220</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>221</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>223</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>224</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>226</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>227</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>229</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>230</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>232</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>233</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>235</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>236</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>238</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>240</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>242</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>244</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>246</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>248</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>250</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>252</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>254</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>256</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>258</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>260</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>262</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>264</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>266</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>268</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>270</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>272</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>274</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>276</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>278</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>280</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>282</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>284</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>286</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>288</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>290</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>292</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>294</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>296</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>298</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>300</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>302</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>304</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>306</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>308</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>310</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>312</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>314</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>316</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>318</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>320</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>322</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>324</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>326</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>328</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>330</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>332</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>334</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>336</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>338</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>340</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>342</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>344</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>346</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>348</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>350</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>352</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>354</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>356</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>358</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>360</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>362</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>364</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>366</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>368</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>370</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>372</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>374</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>376</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>378</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>380</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>382</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>384</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>386</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>388</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>390</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>392</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>394</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>396</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>398</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>400</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>402</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>404</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>406</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>408</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>410</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>412</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>414</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>416</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>418</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>420</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>422</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>424</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>426</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>428</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>430</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>432</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>434</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>436</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>438</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>440</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>442</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>444</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>446</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>448</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>450</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>452</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>454</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>456</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>458</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>460</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>462</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>464</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>466</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>467</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>469</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>471</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>473</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>475</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>477</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>479</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>481</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>483</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>485</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>487</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>489</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>491</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>493</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>495</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>497</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>499</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>501</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>503</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>505</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>506</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>507</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>508</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>509</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>510</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>511</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>512</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>513</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>514</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>515</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>517</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>518</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>519</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>520</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>521</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>522</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>523</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>524</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>525</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>526</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>527</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>528</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>529</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>530</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>531</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>532</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>533</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>534</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>535</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>536</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>537</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>538</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>539</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>540</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>541</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>542</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>543</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>544</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>545</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>546</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>547</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>548</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>549</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>550</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>551</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>552</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>553</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>554</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>555</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>556</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>557</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>558</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>559</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>560</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>561</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>562</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>563</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>564</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>565</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>566</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>567</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>568</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>569</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>570</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>571</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>572</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>573</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>574</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>575</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>576</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>577</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>578</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>579</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>580</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>581</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>582</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>583</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>584</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>585</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>586</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>587</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>588</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>589</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>590</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>591</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>592</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>593</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>594</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>595</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>596</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>597</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>598</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>599</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>600</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>601</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>602</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>603</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>604</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>605</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>606</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>607</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>608</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>609</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>610</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>611</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>612</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>613</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>614</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>615</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>616</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>617</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>618</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>619</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>620</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>621</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>622</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>623</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>624</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>625</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>626</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>627</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>628</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>629</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>630</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>631</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>632</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>633</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>634</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>635</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>636</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>637</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>639</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>641</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>643</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>644</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>646</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>648</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>650</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>652</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>654</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>656</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>658</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>660</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>662</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>664</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>666</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>668</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>670</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>672</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>674</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>676</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>678</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>680</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>682</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>684</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>686</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>688</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>690</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>692</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>694</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>696</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>698</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>700</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>702</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>704</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>706</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>708</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>710</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>712</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>714</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>716</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="448" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>718</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>720</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>722</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>724</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="452" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>726</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>728</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>730</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="455" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>732</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>734</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>736</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>738</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>740</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>742</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>744</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>746</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>748</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>750</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>752</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>754</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>755</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>756</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>757</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>758</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>759</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>760</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>761</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>762</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>763</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>764</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>765</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>766</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>767</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>768</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>769</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>770</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="483" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>771</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>772</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="485" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>773</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="486" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>774</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="487" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>775</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="488" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>776</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="489" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>777</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="490" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>778</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>779</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>780</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>781</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="494" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>782</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="495" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>783</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>784</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>785</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>786</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>787</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>788</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="501" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>789</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>790</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>791</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="504" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>792</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="505" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>793</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>794</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>795</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>796</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>797</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>798</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>799</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="512" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>800</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>801</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>802</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>803</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>804</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>805</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>806</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>807</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>808</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>809</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>810</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>811</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>812</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>813</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>814</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>815</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>816</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>817</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>818</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>819</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>820</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>821</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>822</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>823</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>824</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="537" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>825</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>826</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>827</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>828</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>829</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>830</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>831</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>832</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>833</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>834</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>835</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>836</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>837</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>838</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>839</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>840</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>841</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>842</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>843</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>844</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>845</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>846</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>847</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>848</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>849</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>850</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>851</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>852</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>853</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>854</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>855</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>856</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>857</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>858</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>859</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="572" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>860</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>861</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>862</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>863</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>864</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>865</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>866</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="579" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>867</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>868</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>869</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>870</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="583" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>871</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>872</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>873</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>874</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>875</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="588" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>876</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>877</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="590" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>878</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="591" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>879</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="592" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>880</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>881</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="594" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>882</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>883</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>884</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>885</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>886</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>887</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>888</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>889</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>890</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>891</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>892</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>893</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="606" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>894</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>895</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="608" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>896</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>897</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="610" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>898</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="611" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>899</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="612" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>900</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="613" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>901</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>902</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="615" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>903</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>904</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>905</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="618" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>906</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="619" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>907</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="620" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>908</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="621" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>909</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="622" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>910</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="623" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>911</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="624" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>912</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="625" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>913</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="626" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>914</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="627" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>915</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="628" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>916</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="629" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>917</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="630" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>918</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="631" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>919</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="632" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>920</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="633" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>921</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="634" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>922</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="635" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>923</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="636" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>924</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="637" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>925</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="638" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>926</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="639" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>927</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="640" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>928</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="641" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>929</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="642" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>930</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="643" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>931</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="644" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>932</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="645" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>933</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="646" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>934</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="647" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>935</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="648" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>936</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="649" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>937</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="650" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>938</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="651" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>939</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="652" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>940</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="653" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>941</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="654" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>942</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="655" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>943</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="656" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>944</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="657" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>945</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="658" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>946</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="659" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>947</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="660" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>948</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="661" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>949</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="662" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>950</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="663" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>951</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="664" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>952</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="665" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>953</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="666" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>954</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="667" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>955</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="668" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>956</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="669" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>957</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="670" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>958</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="671" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>959</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="672" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>960</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="673" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>961</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="674" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>962</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="675" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>963</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="676" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>964</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="677" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>965</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="678" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>966</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="679" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>967</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="680" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>968</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="681" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>969</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="682" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>970</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="683" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>971</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="684" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>972</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="685" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>973</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="686" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>974</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="687" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>976</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="688" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>978</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="689" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>980</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="690" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>982</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="691" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>984</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="692" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>986</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="693" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>987</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="694" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>988</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="695" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>989</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="696" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>990</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="697" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>991</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="698" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>992</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="699" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>993</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="700" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>994</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="701" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>995</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="702" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>997</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="703" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>998</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="704" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>1000</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="705" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>1002</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="706" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>1004</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="707" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>1006</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="708" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>1008</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="709" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>1010</v>
       </c>
@@ -10617,7 +10617,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="710" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>1012</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="711" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>1014</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="712" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>1016</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="713" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>1018</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="714" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>1020</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="715" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>1022</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="716" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>1024</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="717" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>1026</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="718" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>1028</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="719" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>1030</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="720" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>1032</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="721" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>1034</v>
       </c>
@@ -10713,7 +10713,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="722" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>1036</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="723" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>1038</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="724" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>1039</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="725" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>1040</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="726" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>1041</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="727" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>1042</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="728" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
         <v>1044</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="729" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>1045</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="730" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
         <v>1046</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="731" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>1047</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="732" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>1048</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="733" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>1049</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="734" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
         <v>1050</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="735" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>1051</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="736" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
         <v>1053</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="737" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
         <v>1054</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="738" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
         <v>1055</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="739" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
         <v>1056</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="740" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
         <v>1057</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="741" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
         <v>1058</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="742" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
         <v>1059</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="743" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
         <v>1060</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="744" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
         <v>1061</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="745" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
         <v>1062</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="746" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
         <v>1063</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="747" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
         <v>1065</v>
       </c>
@@ -10921,7 +10921,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="748" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
         <v>1066</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="749" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
         <v>1067</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="750" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
         <v>1068</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="751" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
         <v>1069</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="752" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
         <v>1070</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="753" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
         <v>1071</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="754" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
         <v>1072</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="755" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
         <v>1073</v>
       </c>
@@ -10985,7 +10985,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="756" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
         <v>1074</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="757" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
         <v>1075</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="758" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
         <v>1076</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="759" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
         <v>1077</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="760" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
         <v>1078</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="761" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
         <v>1079</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="762" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
         <v>1080</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="763" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
         <v>1081</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="764" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
         <v>1082</v>
       </c>
@@ -11057,7 +11057,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="765" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
         <v>1083</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="766" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
         <v>1084</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="767" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
         <v>1085</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="768" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
         <v>1086</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="769" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
         <v>1087</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="770" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
         <v>1088</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="771" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
         <v>1089</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="772" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
         <v>1090</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="773" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
         <v>1091</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="774" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
         <v>1092</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="775" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
         <v>1093</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="776" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
         <v>1094</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="777" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
         <v>1095</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="778" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
         <v>1096</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="779" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
         <v>1097</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="780" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A780" t="s">
         <v>1098</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="781" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A781" t="s">
         <v>1099</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="782" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A782" t="s">
         <v>1100</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="783" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A783" t="s">
         <v>1101</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="784" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
         <v>1102</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="785" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A785" t="s">
         <v>1103</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="786" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
         <v>1104</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="787" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
         <v>1105</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="788" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
         <v>1107</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="789" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
         <v>1108</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="790" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
         <v>1109</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="791" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
         <v>1110</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="792" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
         <v>1111</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="793" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
         <v>1112</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="794" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
         <v>1113</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="795" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
         <v>1114</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="796" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A796" t="s">
         <v>1115</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="797" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
         <v>1116</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="798" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A798" t="s">
         <v>1117</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="799" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
         <v>1118</v>
       </c>
@@ -11337,7 +11337,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="800" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A800" t="s">
         <v>1119</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="801" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
         <v>1120</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="802" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A802" t="s">
         <v>1121</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="803" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A803" t="s">
         <v>1122</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="804" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A804" t="s">
         <v>1124</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="805" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A805" t="s">
         <v>1126</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="806" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A806" t="s">
         <v>1128</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="807" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
         <v>1130</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="808" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A808" t="s">
         <v>1132</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="809" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A809" t="s">
         <v>1134</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="810" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A810" t="s">
         <v>1136</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="811" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A811" t="s">
         <v>1138</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="812" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A812" t="s">
         <v>1139</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="813" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
         <v>1140</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="814" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A814" t="s">
         <v>1141</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="815" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A815" t="s">
         <v>1142</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="816" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
         <v>1143</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="817" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A817" t="s">
         <v>1144</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="818" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
         <v>1145</v>
       </c>
@@ -11489,7 +11489,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="819" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A819" t="s">
         <v>1147</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="820" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A820" t="s">
         <v>1148</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="821" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A821" t="s">
         <v>1150</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="822" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A822" t="s">
         <v>1151</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="823" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A823" t="s">
         <v>1152</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="824" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A824" t="s">
         <v>1154</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="825" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A825" t="s">
         <v>1156</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="826" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A826" t="s">
         <v>1158</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="827" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A827" t="s">
         <v>1160</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="828" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A828" t="s">
         <v>1162</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="829" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A829" t="s">
         <v>1164</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="830" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A830" t="s">
         <v>1166</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="831" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A831" t="s">
         <v>1168</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="832" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
         <v>1170</v>
       </c>
@@ -11601,7 +11601,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="833" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A833" t="s">
         <v>1172</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="834" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A834" t="s">
         <v>1173</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="835" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A835" t="s">
         <v>1174</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="836" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A836" t="s">
         <v>1175</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="837" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A837" t="s">
         <v>1176</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="838" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A838" t="s">
         <v>1177</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="839" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A839" t="s">
         <v>1178</v>
       </c>
@@ -11657,7 +11657,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="840" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A840" t="s">
         <v>1179</v>
       </c>
@@ -11665,7 +11665,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="841" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A841" t="s">
         <v>1180</v>
       </c>
@@ -11673,7 +11673,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="842" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A842" t="s">
         <v>1181</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="843" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A843" t="s">
         <v>1182</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="844" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A844" t="s">
         <v>1183</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="845" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A845" t="s">
         <v>1184</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="846" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A846" t="s">
         <v>1185</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="847" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A847" t="s">
         <v>1186</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="848" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A848" t="s">
         <v>1187</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="849" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A849" t="s">
         <v>1188</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="850" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A850" t="s">
         <v>1189</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="851" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A851" t="s">
         <v>1190</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="852" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A852" t="s">
         <v>1191</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="853" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A853" t="s">
         <v>1192</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="854" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A854" t="s">
         <v>1193</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="855" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A855" t="s">
         <v>1194</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="856" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A856" t="s">
         <v>1195</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="857" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A857" t="s">
         <v>1196</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="858" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A858" t="s">
         <v>1197</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="859" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A859" t="s">
         <v>1198</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="860" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A860" t="s">
         <v>1199</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="861" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A861" t="s">
         <v>1200</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="862" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A862" t="s">
         <v>1201</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="863" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A863" t="s">
         <v>1202</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="864" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A864" t="s">
         <v>1203</v>
       </c>
@@ -11857,7 +11857,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="865" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A865" t="s">
         <v>1204</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="866" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A866" t="s">
         <v>1205</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="867" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A867" t="s">
         <v>1206</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="868" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A868" t="s">
         <v>1207</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="869" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A869" t="s">
         <v>1208</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="870" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A870" t="s">
         <v>1209</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="871" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A871" t="s">
         <v>1210</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="872" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A872" t="s">
         <v>1211</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="873" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A873" t="s">
         <v>1212</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="874" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A874" t="s">
         <v>1213</v>
       </c>
@@ -11937,7 +11937,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="875" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A875" t="s">
         <v>1214</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="876" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A876" t="s">
         <v>1215</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="877" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A877" t="s">
         <v>1216</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="878" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A878" t="s">
         <v>1217</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="879" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A879" t="s">
         <v>1218</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="880" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A880" t="s">
         <v>1219</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="881" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A881" t="s">
         <v>1220</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="882" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A882" t="s">
         <v>1221</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="883" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A883" t="s">
         <v>1222</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="884" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A884" t="s">
         <v>1223</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="885" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A885" t="s">
         <v>1224</v>
       </c>
@@ -12025,7 +12025,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="886" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A886" t="s">
         <v>1226</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="887" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A887" t="s">
         <v>1228</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="888" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A888" t="s">
         <v>1230</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="889" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A889" t="s">
         <v>1232</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="890" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A890" t="s">
         <v>1234</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="891" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A891" t="s">
         <v>1236</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="892" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A892" t="s">
         <v>1238</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="893" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A893" t="s">
         <v>1240</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="894" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A894" t="s">
         <v>1241</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="895" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A895" t="s">
         <v>1242</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="896" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A896" t="s">
         <v>1243</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="897" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A897" t="s">
         <v>1244</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="898" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A898" t="s">
         <v>1246</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="899" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A899" t="s">
         <v>1247</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="900" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A900" t="s">
         <v>1249</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="901" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A901" t="s">
         <v>1250</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="902" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A902" t="s">
         <v>1251</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="903" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A903" t="s">
         <v>1253</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="904" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A904" t="s">
         <v>1255</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="905" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A905" t="s">
         <v>1257</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="906" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A906" t="s">
         <v>1258</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="907" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A907" t="s">
         <v>1259</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="908" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A908" t="s">
         <v>1260</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="909" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A909" t="s">
         <v>1261</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="910" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A910" t="s">
         <v>1262</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="911" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A911" t="s">
         <v>1263</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="912" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A912" t="s">
         <v>1264</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="913" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A913" t="s">
         <v>1265</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="914" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A914" t="s">
         <v>1266</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="915" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A915" t="s">
         <v>1267</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="916" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A916" t="s">
         <v>1268</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="917" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A917" t="s">
         <v>1269</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="918" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A918" t="s">
         <v>1270</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="919" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A919" t="s">
         <v>1271</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="920" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A920" t="s">
         <v>1272</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="921" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A921" t="s">
         <v>1273</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="922" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A922" t="s">
         <v>1274</v>
       </c>
@@ -12321,7 +12321,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="923" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A923" t="s">
         <v>1275</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="924" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A924" t="s">
         <v>1276</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="925" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A925" t="s">
         <v>1277</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="926" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A926" t="s">
         <v>1278</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="927" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A927" t="s">
         <v>1279</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="928" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A928" t="s">
         <v>1280</v>
       </c>
@@ -12369,7 +12369,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="929" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A929" t="s">
         <v>1281</v>
       </c>
@@ -12377,7 +12377,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="930" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A930" t="s">
         <v>1283</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="931" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A931" t="s">
         <v>1285</v>
       </c>
@@ -12393,7 +12393,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="932" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A932" t="s">
         <v>1287</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="933" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A933" t="s">
         <v>1289</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="934" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A934" t="s">
         <v>1291</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="935" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A935" t="s">
         <v>1293</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="936" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A936" t="s">
         <v>1295</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="937" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A937" t="s">
         <v>1297</v>
       </c>
@@ -12441,7 +12441,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="938" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A938" t="s">
         <v>1299</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="939" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A939" t="s">
         <v>1301</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="940" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A940" t="s">
         <v>1303</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="941" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A941" t="s">
         <v>1305</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="942" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A942" t="s">
         <v>1307</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="943" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A943" t="s">
         <v>1309</v>
       </c>
@@ -12489,7 +12489,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="944" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A944" t="s">
         <v>1311</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="945" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A945" t="s">
         <v>1313</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="946" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A946" t="s">
         <v>1315</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="947" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A947" t="s">
         <v>1317</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="948" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A948" t="s">
         <v>1319</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="949" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A949" t="s">
         <v>1321</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="950" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A950" t="s">
         <v>1323</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="951" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A951" t="s">
         <v>1325</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="952" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A952" t="s">
         <v>1327</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="953" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A953" t="s">
         <v>1329</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="954" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A954" t="s">
         <v>1331</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="955" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A955" t="s">
         <v>1333</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="956" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A956" t="s">
         <v>1335</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="957" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A957" t="s">
         <v>1337</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="958" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A958" t="s">
         <v>1339</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="959" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A959" t="s">
         <v>1340</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="960" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A960" t="s">
         <v>1341</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="961" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A961" t="s">
         <v>1342</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="962" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A962" t="s">
         <v>1343</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="963" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A963" t="s">
         <v>1344</v>
       </c>
@@ -12653,12 +12653,86 @@
   <autoFilter ref="A1:A963" xr:uid="{CB82BDAF-638F-492F-AA5C-88C3F27D6AAA}">
     <filterColumn colId="0">
       <filters>
+        <filter val="tHFA_B001"/>
+        <filter val="tHFA_B011"/>
+        <filter val="tHFA_B012"/>
+        <filter val="tHFA_B013"/>
+        <filter val="tHFA_B014"/>
+        <filter val="tHFA_B015"/>
+        <filter val="tHFA_B016"/>
+        <filter val="tHFA_B017"/>
+        <filter val="tHFA_B018"/>
+        <filter val="tHFA_B019"/>
+        <filter val="tHFA_B020_A"/>
+        <filter val="tHFA_B020_B"/>
+        <filter val="tHFA_B020_C"/>
+        <filter val="tHFA_B020_D"/>
+        <filter val="tHFA_B020_E"/>
+        <filter val="tHFA_B020_F"/>
+        <filter val="tHFA_B020_G"/>
+        <filter val="tHFA_B020_H"/>
+        <filter val="tHFA_B020_I"/>
+        <filter val="tHFA_B020_I1"/>
+        <filter val="tHFA_B020_I2"/>
         <filter val="tHFA_B021"/>
         <filter val="tHFA_B022"/>
         <filter val="tHFA_B023"/>
         <filter val="tHFA_B024"/>
+        <filter val="tHFA_B025"/>
+        <filter val="tHFA_B026"/>
+        <filter val="tHFA_B027"/>
+        <filter val="tHFA_B029"/>
+        <filter val="tHFA_B030"/>
+        <filter val="tHFA_B031"/>
+        <filter val="tHFA_B032"/>
+        <filter val="tHFA_B033"/>
+        <filter val="tHFA_B034"/>
         <filter val="tHFA_B035"/>
+        <filter val="tHFA_B036"/>
+        <filter val="tHFA_B037"/>
+        <filter val="tHFA_B038"/>
+        <filter val="tHFA_B039"/>
+        <filter val="tHFA_B040"/>
+        <filter val="tHFA_B041"/>
+        <filter val="tHFA_B042"/>
+        <filter val="tHFA_B043"/>
+        <filter val="tHFA_B044"/>
         <filter val="tHFA_B045"/>
+        <filter val="tHFA_B046"/>
+        <filter val="tHFA_B047"/>
+        <filter val="tHFA_B048"/>
+        <filter val="tHFA_B049"/>
+        <filter val="tHFA_B050"/>
+        <filter val="tHFA_B051"/>
+        <filter val="tHFA_B052"/>
+        <filter val="tHFA_B053"/>
+        <filter val="tHFA_B054"/>
+        <filter val="tHFA_B055"/>
+        <filter val="tHFA_B056"/>
+        <filter val="tHFA_B057"/>
+        <filter val="tHFA_B058_1"/>
+        <filter val="tHFA_B058_1a"/>
+        <filter val="tHFA_B058_2"/>
+        <filter val="tHFA_B058_2a"/>
+        <filter val="tHFA_B058_3"/>
+        <filter val="tHFA_B058_3a"/>
+        <filter val="tHFA_B058_4"/>
+        <filter val="tHFA_B058_4a"/>
+        <filter val="tHFA_B058_5"/>
+        <filter val="tHFA_B058_5a"/>
+        <filter val="tHFA_B059"/>
+        <filter val="tHFA_B060"/>
+        <filter val="tHFA_B061"/>
+        <filter val="tHFA_B062"/>
+        <filter val="tHFA_B063"/>
+        <filter val="tHFA_B064"/>
+        <filter val="tHFA_B065"/>
+        <filter val="tHFA_B066"/>
+        <filter val="tHFA_B067"/>
+        <filter val="tHFA_B068"/>
+        <filter val="tHFA_B069"/>
+        <filter val="tHFA_B070"/>
+        <filter val="tHFA_B071"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Tool/columns.xlsx
+++ b/Tool/columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d4a9fd65a6bad53/Seun/3. Career and business/3. IQVIA-Asiwaju-PC/Analysis/tHFA/Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{E1511F1F-D8A7-4D42-928E-E9E384E9A26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9711551-DA7F-42DA-B317-21AD278905E6}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{E1511F1F-D8A7-4D42-928E-E9E384E9A26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC8AC839-7A7B-4681-85C6-1757DFE04C32}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{92F174B8-707D-4AB0-8456-4EDDF9CBD9F1}"/>
   </bookViews>
@@ -4935,8 +4935,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:B963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5249,7 +5249,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>90</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>100</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>144</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>146</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>148</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>149</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>151</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>152</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>154</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>157</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>158</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>160</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>161</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>163</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>164</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>166</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>167</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>169</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>170</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>172</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>173</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>175</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>176</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>178</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>179</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>181</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>182</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>184</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>185</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>187</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>188</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>190</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>191</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>193</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>194</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>196</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>197</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>199</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>200</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>202</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>203</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>205</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>206</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>208</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>209</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>211</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>212</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>214</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>215</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>217</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>218</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>220</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>221</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>223</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>224</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>226</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>227</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>229</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>230</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>232</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>233</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>235</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>236</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>238</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>240</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>242</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>244</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>246</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>248</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>250</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>252</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>254</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>256</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>258</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>260</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>262</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>264</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>266</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>268</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>270</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>272</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>274</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>276</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>278</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>280</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>282</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>284</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>286</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>288</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>290</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>292</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>294</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>296</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>298</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>300</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>302</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>304</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>306</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>308</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>310</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>312</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>314</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>316</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>318</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>320</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>322</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>324</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>326</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>328</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>330</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>332</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>334</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>336</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>338</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>342</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>348</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>352</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>354</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>356</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>358</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>360</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>362</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>364</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>366</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>368</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>370</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>372</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>374</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>376</v>
       </c>
@@ -12653,86 +12653,66 @@
   <autoFilter ref="A1:A963" xr:uid="{CB82BDAF-638F-492F-AA5C-88C3F27D6AAA}">
     <filterColumn colId="0">
       <filters>
-        <filter val="tHFA_B001"/>
-        <filter val="tHFA_B011"/>
-        <filter val="tHFA_B012"/>
-        <filter val="tHFA_B013"/>
-        <filter val="tHFA_B014"/>
-        <filter val="tHFA_B015"/>
-        <filter val="tHFA_B016"/>
-        <filter val="tHFA_B017"/>
-        <filter val="tHFA_B018"/>
-        <filter val="tHFA_B019"/>
-        <filter val="tHFA_B020_A"/>
-        <filter val="tHFA_B020_B"/>
-        <filter val="tHFA_B020_C"/>
-        <filter val="tHFA_B020_D"/>
-        <filter val="tHFA_B020_E"/>
-        <filter val="tHFA_B020_F"/>
-        <filter val="tHFA_B020_G"/>
-        <filter val="tHFA_B020_H"/>
-        <filter val="tHFA_B020_I"/>
-        <filter val="tHFA_B020_I1"/>
-        <filter val="tHFA_B020_I2"/>
-        <filter val="tHFA_B021"/>
-        <filter val="tHFA_B022"/>
-        <filter val="tHFA_B023"/>
-        <filter val="tHFA_B024"/>
-        <filter val="tHFA_B025"/>
-        <filter val="tHFA_B026"/>
-        <filter val="tHFA_B027"/>
-        <filter val="tHFA_B029"/>
-        <filter val="tHFA_B030"/>
-        <filter val="tHFA_B031"/>
-        <filter val="tHFA_B032"/>
-        <filter val="tHFA_B033"/>
-        <filter val="tHFA_B034"/>
-        <filter val="tHFA_B035"/>
-        <filter val="tHFA_B036"/>
-        <filter val="tHFA_B037"/>
-        <filter val="tHFA_B038"/>
-        <filter val="tHFA_B039"/>
-        <filter val="tHFA_B040"/>
-        <filter val="tHFA_B041"/>
-        <filter val="tHFA_B042"/>
-        <filter val="tHFA_B043"/>
-        <filter val="tHFA_B044"/>
-        <filter val="tHFA_B045"/>
-        <filter val="tHFA_B046"/>
-        <filter val="tHFA_B047"/>
-        <filter val="tHFA_B048"/>
-        <filter val="tHFA_B049"/>
-        <filter val="tHFA_B050"/>
-        <filter val="tHFA_B051"/>
-        <filter val="tHFA_B052"/>
-        <filter val="tHFA_B053"/>
-        <filter val="tHFA_B054"/>
-        <filter val="tHFA_B055"/>
-        <filter val="tHFA_B056"/>
-        <filter val="tHFA_B057"/>
-        <filter val="tHFA_B058_1"/>
-        <filter val="tHFA_B058_1a"/>
-        <filter val="tHFA_B058_2"/>
-        <filter val="tHFA_B058_2a"/>
-        <filter val="tHFA_B058_3"/>
-        <filter val="tHFA_B058_3a"/>
-        <filter val="tHFA_B058_4"/>
-        <filter val="tHFA_B058_4a"/>
-        <filter val="tHFA_B058_5"/>
-        <filter val="tHFA_B058_5a"/>
-        <filter val="tHFA_B059"/>
-        <filter val="tHFA_B060"/>
-        <filter val="tHFA_B061"/>
-        <filter val="tHFA_B062"/>
-        <filter val="tHFA_B063"/>
-        <filter val="tHFA_B064"/>
-        <filter val="tHFA_B065"/>
-        <filter val="tHFA_B066"/>
-        <filter val="tHFA_B067"/>
-        <filter val="tHFA_B068"/>
-        <filter val="tHFA_B069"/>
-        <filter val="tHFA_B070"/>
-        <filter val="tHFA_B071"/>
+        <filter val="EDL_RESPONSE_01"/>
+        <filter val="EDL_RESPONSE_02"/>
+        <filter val="EDL_RESPONSE_03"/>
+        <filter val="EDL_RESPONSE_04"/>
+        <filter val="EDL_RESPONSE_05"/>
+        <filter val="EDL_RESPONSE_06"/>
+        <filter val="EDL_RESPONSE_07"/>
+        <filter val="EDL_RESPONSE_08"/>
+        <filter val="EDL_RESPONSE_09"/>
+        <filter val="EDL_RESPONSE_10"/>
+        <filter val="EDL_RESPONSE_11"/>
+        <filter val="EDL_RESPONSE_12"/>
+        <filter val="EDL_RESPONSE_13"/>
+        <filter val="EDL_RESPONSE_14"/>
+        <filter val="EDL_RESPONSE_15"/>
+        <filter val="EDL_RESPONSE_16"/>
+        <filter val="EDL_RESPONSE_17"/>
+        <filter val="EDL_RESPONSE_18"/>
+        <filter val="EDL_RESPONSE_19"/>
+        <filter val="EDL_RESPONSE_20"/>
+        <filter val="EDL_RESPONSE_21"/>
+        <filter val="EDL_RESPONSE_22"/>
+        <filter val="EDL_RESPONSE_23"/>
+        <filter val="EDL_RESPONSE_24"/>
+        <filter val="EDL_RESPONSE_25"/>
+        <filter val="EDL_RESPONSE_26"/>
+        <filter val="EDL_RESPONSE_27"/>
+        <filter val="EDL_RESPONSE_28"/>
+        <filter val="EDL_RESPONSE_29"/>
+        <filter val="EDL_RESPONSE_30"/>
+        <filter val="EDL_TEST_01"/>
+        <filter val="EDL_TEST_02"/>
+        <filter val="EDL_TEST_03"/>
+        <filter val="EDL_TEST_04"/>
+        <filter val="EDL_TEST_05"/>
+        <filter val="EDL_TEST_06"/>
+        <filter val="EDL_TEST_07"/>
+        <filter val="EDL_TEST_08"/>
+        <filter val="EDL_TEST_09"/>
+        <filter val="EDL_TEST_10"/>
+        <filter val="EDL_TEST_11"/>
+        <filter val="EDL_TEST_12"/>
+        <filter val="EDL_TEST_13"/>
+        <filter val="EDL_TEST_14"/>
+        <filter val="EDL_TEST_15"/>
+        <filter val="EDL_TEST_16"/>
+        <filter val="EDL_TEST_17"/>
+        <filter val="EDL_TEST_18"/>
+        <filter val="EDL_TEST_19"/>
+        <filter val="EDL_TEST_20"/>
+        <filter val="EDL_TEST_21"/>
+        <filter val="EDL_TEST_22"/>
+        <filter val="EDL_TEST_23"/>
+        <filter val="EDL_TEST_24"/>
+        <filter val="EDL_TEST_25"/>
+        <filter val="EDL_TEST_26"/>
+        <filter val="EDL_TEST_27"/>
+        <filter val="EDL_TEST_28"/>
+        <filter val="EDL_TEST_29"/>
+        <filter val="EDL_TEST_30"/>
       </filters>
     </filterColumn>
   </autoFilter>
